--- a/data_excel/接口测试用例_ (10).xlsx
+++ b/data_excel/接口测试用例_ (10).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 18:17:49', 'ftime': '2019-09-20 18:17:49', 'context': '已签收,签收人是（体育馆申通代签）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员体育馆8611113(18300625043,0391-8611113)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-19 19:10:30', 'ftime': '2019-09-19 19:10:30', 'context': '派送不成功-原因：超派件,客户自取', 'location': ''}, {'time': '2019-09-19 11:53:12', 'ftime': '2019-09-19 11:53:12', 'context': '河南博爱公司-体育馆8611113(18300625043,0391-8611113)-派件中', 'location': ''}, {'time': '2019-09-19 11:08:12', 'ftime': '2019-09-19 11:08:12', 'context': '已到达-河南博爱公司', 'location': ''}, {'time': '2019-09-19 09:46:34', 'ftime': '2019-09-19 09:46:34', 'context': '已到达-河南博爱公司', 'location': ''}, {'time': '2019-09-18 18:06:21', 'ftime': '2019-09-18 18:06:21', 'context': '河南郑州转运中心-已发往-河南博爱公司', 'location': ''}, {'time': '2019-09-18 17:46:54', 'ftime': '2019-09-18 17:46:54', 'context': '已到达-河南郑州转运中心', 'location': ''}, {'time': '2019-09-17 22:00:36', 'ftime': '2019-09-17 22:00:36', 'context': '江苏江阴航空部-已装袋发往-河南郑州转运中心', 'location': ''}, {'time': '2019-09-17 22:00:36', 'ftime': '2019-09-17 22:00:36', 'context': '江苏江阴航空部-已进行装车扫描', 'location': ''}, {'time': '2019-09-17 21:57:39', 'ftime': '2019-09-17 21:57:39', 'context': '已到达-江苏江阴航空部', 'location': ''}, {'time': '2019-09-17 21:57:39', 'ftime': '2019-09-17 21:57:39', 'context': '快件已在【江苏江阴航空部】进行卸车，扫描员【双称五面扫2】', 'location': ''}, {'time': '2019-09-17 21:10:29', 'ftime': '2019-09-17 21:10:29', 'context': '江苏江阴公司-已发往-江苏江阴航空部', 'location': ''}, {'time': '2019-09-17 21:10:29', 'ftime': '2019-09-17 21:10:29', 'context': '江苏江阴公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-17 17:22:46', 'ftime': '2019-09-17 17:22:46', 'context': '江苏江阴公司-市场三部(15261610168,0510-86117758)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 10:07:06', 'context': '查无结果', 'ftime': '2019-09-08 10:07:06'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07446899999999999</v>
+        <v>0.065502</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009605000000000001</v>
+        <v>0.007633</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-15 10:39:21', 'ftime': '2019-09-15 10:39:21', 'context': '[杭州市]已签收,收发室,投递员:寄递汪亮亮,电话:18258847691', 'location': ''}, {'time': '2019-09-15 08:25:02', 'ftime': '2019-09-15 08:25:02', 'context': '杭州市余杭区运河】安排投递,投递员:寄递汪亮亮,电话:18258847691', 'location': ''}, {'time': '2019-09-15 07:30:23', 'ftime': '2019-09-15 07:30:23', 'context': '到达【杭州市余杭区运河】', 'location': ''}, {'time': '2019-09-15 06:05:40', 'ftime': '2019-09-15 06:05:40', 'context': '离开【杭州中心】,下一站【杭州市余杭区运河】', 'location': ''}, {'time': '2019-09-12 22:18:19', 'ftime': '2019-09-12 22:18:19', 'context': '[西安市]离开【西安航站】,下一站【西安中心】', 'location': ''}, {'time': '2019-09-12 15:05:30', 'ftime': '2019-09-12 15:05:30', 'context': '[西安市]到达【西安航站】', 'location': ''}, {'time': '2019-09-12 14:17:45', 'ftime': '2019-09-12 14:17:45', 'context': '[西安市]离开【西安桃园路揽投部】,下一站【西安航站】', 'location': ''}, {'time': '2019-09-12 09:31:20', 'ftime': '2019-09-12 09:31:20', 'context': '[西安市]【西安桃园路揽投部】已收件,揽投员:王智侠,电话:18292862335', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:35:28', 'ftime': '2019-09-29 08:35:28', 'context': '[广东深圳公司龙岗区龙华龙胜分部]进行派件扫描；派送业务员：朱秋茂；联系电话：18576401252', 'location': '广东深圳公司龙岗区龙华龙胜分部'}, {'time': '2019-09-28 18:08:18', 'ftime': '2019-09-28 18:08:18', 'context': '[广东深圳公司]进行快件扫描，发往：广东深圳公司龙岗区龙华龙胜分部', 'location': '广东深圳公司'}, {'time': '2019-09-28 17:57:45', 'ftime': '2019-09-28 17:57:45', 'context': '[广东深圳公司]在分拨中心进行卸车扫描', 'location': '广东深圳公司'}, {'time': '2019-09-26 01:56:43', 'ftime': '2019-09-26 01:56:43', 'context': '[北京分拨中心]进行装车扫描，发往：广东深圳分拨中心', 'location': '北京分拨中心'}, {'time': '2019-09-26 01:43:18', 'ftime': '2019-09-26 01:43:18', 'context': '[北京分拨中心]进行中转集包扫描，发往：深中市内包', 'location': '北京分拨中心'}, {'time': '2019-09-26 01:41:13', 'ftime': '2019-09-26 01:41:13', 'context': '[北京分拨中心]在分拨中心进行称重扫描', 'location': '北京分拨中心'}, {'time': '2019-09-25 20:41:07', 'ftime': '2019-09-25 20:41:07', 'context': '[北京西城区月坛公司]进行揽件扫描', 'location': '北京西城区月坛公司'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.07432800000000001</v>
+        <v>0.077787</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011182</v>
+        <v>0.011364</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-02 19:50:27', 'ftime': '2018-11-02 19:50:27', 'context': '[阳江市]阳江市【阳江新闸坡分部】，快件放置在您经常取件处，如暂未能找到，请第一时间致电派件员13664962096核查，以免丢货，谢谢 已签收', 'location': None}, {'time': '2018-11-02 13:59:08', 'ftime': '2018-11-02 13:59:08', 'context': '[阳江市]阳江市【阳江新闸坡分部】，【平冈营业部/0662-3833331】正在派件', 'location': None}, {'time': '2018-11-02 13:58:08', 'ftime': '2018-11-02 13:58:08', 'context': '[阳江市]到阳江市【阳江新闸坡分部】', 'location': None}, {'time': '2018-11-02 05:57:42', 'ftime': '2018-11-02 05:57:42', 'context': '[中山市]中山市【中山转运中心】，正发往【阳江新闸坡分部】', 'location': None}, {'time': '2018-11-02 02:08:32', 'ftime': '2018-11-02 02:08:32', 'context': '[中山市]到中山市【中山转运中心】', 'location': None}, {'time': '2018-11-02 00:13:36', 'ftime': '2018-11-02 00:13:36', 'context': '[广州市]广州市【广州黄埔转运中心】，正发往【中山转运中心】', 'location': None}, {'time': '2018-11-01 22:52:03', 'ftime': '2018-11-01 22:52:03', 'context': '[广州市]到广州市【广州黄埔转运中心】', 'location': None}, {'time': '2018-11-01 21:23:26', 'ftime': '2018-11-01 21:23:26', 'context': '[广州市]广州市【广州番禺区十部集货点】，正发往【广州黄埔转运中心】', 'location': None}, {'time': '2018-11-01 21:12:34', 'ftime': '2018-11-01 21:12:34', 'context': '[广州市]到广州市【广州番禺区十部集货点】', 'location': None}, {'time': '2018-11-01 16:57:54', 'ftime': '2018-11-01 16:57:54', 'context': '[广州市]广州市【广州番禺区五部】，【刘攸清/13326460308】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 15:39:34', 'ftime': '2019-09-27 15:39:34', 'context': '[河南郑州公司正道花园分部]快件已被 金融广场丰巢快递柜FC3711053 代签收如有问题请联系屠苏【18236969244】。', 'location': '河南郑州公司正道花园分部'}, {'time': '2019-09-27 15:12:17', 'ftime': '2019-09-27 15:12:17', 'context': '[河南郑州公司正道花园分部]进行派件扫描；派送业务员：屠苏；联系电话：18236969244', 'location': '河南郑州公司正道花园分部'}, {'time': '2019-09-27 14:41:14', 'ftime': '2019-09-27 14:41:14', 'context': '[河南郑州公司正道花园分部]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司正道花园分部'}, {'time': '2019-09-27 11:49:37', 'ftime': '2019-09-27 11:49:37', 'context': '[河南郑州公司]进行快件扫描，发往：河南郑州公司正道花园分部', 'location': '河南郑州公司'}, {'time': '2019-09-27 08:17:31', 'ftime': '2019-09-27 08:17:31', 'context': '[河南郑州公司]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司'}, {'time': '2019-09-27 07:03:56', 'ftime': '2019-09-27 07:03:56', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：河南郑州公司', 'location': '河南郑州分拨中心'}, {'time': '2019-09-27 06:56:56', 'ftime': '2019-09-27 06:56:56', 'context': '[河南郑州分拨中心]在分拨中心进行称重扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-09-26 04:30:38', 'ftime': '2019-09-26 04:30:38', 'context': '[广东广州分拨中心]进行装车扫描，发往：河南郑州分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 04:28:55', 'ftime': '2019-09-26 04:28:55', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 03:25:50', 'ftime': '2019-09-26 03:25:50', 'context': '[广东广州白云区大源公司]进行下级地点扫描，发往：河南郑州公司', 'location': '广东广州白云区大源公司'}, {'time': '2019-09-26 01:47:31', 'ftime': '2019-09-26 01:47:31', 'context': '[广东广州白云区大源公司]进行揽件扫描', 'location': '广东广州白云区大源公司'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.122504</v>
+        <v>0.07255</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.012803</v>
+        <v>0.010167</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 03:31:51', 'ftime': '2019-09-28 03:31:51', 'context': '快件 已从 郑州分拨中心 发出', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-09-28 03:04:26', 'ftime': '2019-09-28 03:04:26', 'context': '快件 已到达 郑州分拨中心', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-09-27 20:22:49', 'ftime': '2019-09-27 20:22:49', 'context': '快件 已到达 洛阳集配站', 'location': '河南省-洛阳市-洛阳集配站'}, {'time': '2019-09-27 20:22:42', 'ftime': '2019-09-27 20:22:42', 'context': '快件 已从 洛阳集配站 发出', 'location': '河南省-洛阳市-洛阳集配站'}, {'time': '2019-09-26 19:45:06', 'ftime': '2019-09-26 19:45:06', 'context': '快件 已从 洛阳科技园 发出', 'location': '河南省-洛阳市-洛阳科技园'}, {'time': '2019-09-26 19:44:30', 'ftime': '2019-09-26 19:44:30', 'context': '洛阳科技园 的 业务员 已收件', 'location': '河南省-洛阳市-洛阳科技园'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 03:07:09', 'ftime': '2019-09-28 03:07:09', 'context': '【虎门转运中心】 已发出 下一站 【青岛转运中心】', 'location': ''}, {'time': '2019-09-28 02:53:34', 'ftime': '2019-09-28 02:53:34', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 21:57:12', 'ftime': '2019-09-27 21:57:12', 'context': '【广东省汕尾市】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-09-27 20:59:08', 'ftime': '2019-09-27 20:59:08', 'context': '【广东省汕尾市公司】 已打包', 'location': ''}, {'time': '2019-09-27 20:38:20', 'ftime': '2019-09-27 20:38:20', 'context': '【广东省汕尾市公司】 已收件 取件人: 林桂勤 (95554)', 'location': ''}, {'time': '2019-09-27 18:27:04', 'ftime': '2019-09-27 18:27:04', 'context': '【广东省汕尾市城区莲塘分部公司】 已收件 取件人: 吴育钦 (17727209211)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.075151</v>
+        <v>0.074226</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.011112</v>
+        <v>0.010463</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:00:44', 'ftime': '2019-09-29 06:00:44', 'context': '到达：【浙江义乌分拨中心】正发往：【浙江永康江南快运公司】', 'location': ''}, {'time': '2019-09-28 23:35:09', 'ftime': '2019-09-28 23:35:09', 'context': '到达：【浙江义乌分拨中心】上级网点【浙江义乌江东快运公司江南四区分部】', 'location': ''}, {'time': '2019-09-28 18:58:07', 'ftime': '2019-09-28 18:58:07', 'context': '到达：【浙江义乌江东快运公司】正发往：【浙江义乌分拨中心】', 'location': ''}, {'time': '2019-09-28 09:10:01', 'ftime': '2019-09-28 09:10:01', 'context': '到达：【浙江义乌分拨中心】上级网点【江苏淮安分拨中心】', 'location': ''}, {'time': '2019-09-27 19:17:21', 'ftime': '2019-09-27 19:17:21', 'context': '到达：【江苏淮安分拨中心】正发往：【浙江义乌分拨中心】', 'location': ''}, {'time': '2019-09-26 22:38:09', 'ftime': '2019-09-26 22:38:09', 'context': '到达：【江苏淮安分拨中心】上级网点【江苏淮安宿迁快运公司】', 'location': ''}, {'time': '2019-09-26 18:28:52', 'ftime': '2019-09-26 18:28:52', 'context': '到达：【江苏淮安宿迁快运公司】正发往：【江苏淮安分拨中心】', 'location': ''}, {'time': '2019-09-26 17:48:26', 'ftime': '2019-09-26 17:48:26', 'context': '到达：【江苏宿迁宿城区服务部】正发往：【江苏淮安宿迁快运公司】', 'location': ''}, {'time': '2019-09-26 17:27:24', 'ftime': '2019-09-26 17:27:24', 'context': '已开单:【江苏宿迁宿城区服务部】开单员是:王小进', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-04 13:24:57', 'ftime': '2018-11-04 13:24:57', 'context': '订单已由公司前台代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-04 08:28:53', 'ftime': '2018-11-04 08:28:53', 'context': '配送员开始配送，请您准备收货，配送员，杨鹏，手机号，15619198890', 'location': None}, {'time': '2018-11-04 08:04:04', 'ftime': '2018-11-04 08:04:04', 'context': '货物已到达【铜川王益站】', 'location': None}, {'time': '2018-11-04 08:04:03', 'ftime': '2018-11-04 08:04:03', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-03 19:27:53', 'ftime': '2018-11-03 19:27:53', 'context': '货物已完成分拣，离开【西安耿镇分拣中心】', 'location': None}, {'time': '2018-11-03 19:06:00', 'ftime': '2018-11-03 19:06:00', 'context': '货物已到达【西安耿镇分拣中心】', 'location': None}, {'time': '2018-11-03 17:48:25', 'ftime': '2018-11-03 17:48:25', 'context': '货物已完成分拣，离开【西安港务分拣中心】', 'location': None}, {'time': '2018-11-03 17:29:57', 'ftime': '2018-11-03 17:29:57', 'context': '货物已到达【西安港务分拣中心】', 'location': None}, {'time': '2018-11-02 21:30:09', 'ftime': '2018-11-02 21:30:09', 'context': '货物已完成分拣，离开【北京顺义分拣中心】', 'location': None}, {'time': '2018-11-02 21:26:09', 'ftime': '2018-11-02 21:26:09', 'context': '货物已到达【北京顺义分拣中心】', 'location': None}, {'time': '2018-11-02 17:48:11', 'ftime': '2018-11-02 17:48:11', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-02 17:48:11', 'ftime': '2018-11-02 17:48:11', 'context': '配送员马虎已经揽收完成', 'location': None}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.072225</v>
+        <v>0.071274</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010346</v>
+        <v>0.013343</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 09:07:07', 'ftime': '2019-09-22 09:07:07', 'context': '[潍坊市开发区揽投部]在 潍坊市 已签收,他人代收：小强果蔬,投递员:王胜华,电话:19862695295', 'location': '潍坊市开发区揽投部'}, {'time': '2019-09-22 08:18:32', 'ftime': '2019-09-22 08:18:32', 'context': '【潍坊市开发区揽投部】安排投递,投递员:王胜华,电话:19862695295', 'location': '潍坊市开发区揽投部'}, {'time': '2019-09-22 07:31:16', 'ftime': '2019-09-22 07:31:16', 'context': '到达【潍坊市开发区揽投部】', 'location': '潍坊市开发区揽投部'}, {'time': '2019-09-22 05:56:16', 'ftime': '2019-09-22 05:56:16', 'context': '离开【潍坊处理中心】,下一站【潍坊市开发区揽投部】', 'location': '潍坊处理中心'}, {'time': '2019-09-21 21:15:15', 'ftime': '2019-09-21 21:15:15', 'context': '到达【潍坊处理中心】', 'location': '潍坊处理中心'}, {'time': '2019-09-21 19:43:24', 'ftime': '2019-09-21 19:43:24', 'context': '离开【淄博市百草味揽投部】,下一站【潍速中心】', 'location': '淄博市百草味揽投部'}, {'time': '2019-09-21 19:36:38', 'ftime': '2019-09-21 19:36:38', 'context': '淄博市 【淄博市百草味揽投部】已收件,揽投员:于杰,电话:13964481361', 'location': '淄博市百草味揽投部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 20:46:07', 'ftime': '2019-09-27 20:46:07', 'context': '【杭州转运中心】 已发出 下一站 【肃宁转运中心】', 'location': ''}, {'time': '2019-09-27 20:42:37', 'ftime': '2019-09-27 20:42:37', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 05:06:26', 'ftime': '2019-09-27 05:06:26', 'context': '【金华转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-26 23:23:26', 'ftime': '2019-09-26 23:23:26', 'context': '【金华转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 21:03:03', 'ftime': '2019-09-26 21:03:03', 'context': '【浙江省金华市永康市】 已发出 下一站 【金华转运中心】', 'location': ''}, {'time': '2019-09-26 20:53:13', 'ftime': '2019-09-26 20:53:13', 'context': '【浙江省金华市永康市公司】 已收件 取件人: 蒋海洋 (18276897888)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.072389</v>
+        <v>0.071524</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010907</v>
+        <v>0.011507</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 09:42:50', 'context': '查无结果', 'ftime': '2019-09-20 09:42:50'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 13:49:20', 'ftime': '2019-09-23 13:49:20', 'context': '[潜江市]潜江市【潜江市】，拍照签收 已签收', 'location': '潜江市'}, {'time': '2019-09-23 08:59:56', 'ftime': '2019-09-23 08:59:56', 'context': '[潜江市]潜江市【潜江市】，【梁正慨/15346648871】正在派件', 'location': '潜江市'}, {'time': '2019-09-23 08:50:23', 'ftime': '2019-09-23 08:50:23', 'context': '[潜江市]到潜江市【潜江市】', 'location': '潜江市'}, {'time': '2019-09-23 02:51:08', 'ftime': '2019-09-23 02:51:08', 'context': '[荆州市]荆州市【荆州集散中心】，正发往【潜江市】', 'location': '荆州市'}, {'time': '2019-09-23 02:28:32', 'ftime': '2019-09-23 02:28:32', 'context': '[荆州市]到荆州市【荆州集散中心】', 'location': '荆州市'}, {'time': '2019-09-22 19:57:05', 'ftime': '2019-09-22 19:57:05', 'context': '[武汉市]武汉市【武汉转运中心】，正发往【荆州集散中心】', 'location': '武汉市'}, {'time': '2019-09-22 19:53:05', 'ftime': '2019-09-22 19:53:05', 'context': '[武汉市]到武汉市【武汉转运中心】', 'location': '武汉市'}, {'time': '2019-09-21 07:41:28', 'ftime': '2019-09-21 07:41:28', 'context': '[石家庄市]石家庄市【石家庄转运中心】，正发往【武汉转运中心】', 'location': '石家庄市'}, {'time': '2019-09-21 01:39:52', 'ftime': '2019-09-21 01:39:52', 'context': '[石家庄市]石家庄市【石家庄转运中心】，正发往【武汉转运中心】', 'location': '石家庄市'}, {'time': '2019-09-21 01:31:42', 'ftime': '2019-09-21 01:31:42', 'context': '[石家庄市]到石家庄市【石家庄转运中心】', 'location': '石家庄市'}, {'time': '2019-09-20 15:10:07', 'ftime': '2019-09-20 15:10:07', 'context': '[邢台市]邢台市【广宗县】，【任天恩/15933697336】已揽收', 'location': '邢台市'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.064085</v>
+        <v>0.07709100000000001</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010265</v>
+        <v>0.009960999999999999</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 09:42:50', 'context': '查无结果', 'ftime': '2019-09-25 09:42:50'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 10:07:07', 'context': '查无结果', 'ftime': '2019-09-02 10:07:07'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.06832199999999999</v>
+        <v>0.06407599999999999</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010424</v>
+        <v>0.009299</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-26 22:57:36', 'ftime': '2019-09-26 22:57:36', 'context': '[沈阳市]沈阳市【沈阳转运中心】，正发往【贵阳转运中心】', 'location': None}, {'time': '2019-09-26 22:53:03', 'ftime': '2019-09-26 22:53:03', 'context': '[沈阳市]到沈阳市【沈阳转运中心】', 'location': None}, {'time': '2019-09-26 17:37:25', 'ftime': '2019-09-26 17:37:25', 'context': '[通辽市]通辽市【通辽】，正发往【沈阳转运中心】', 'location': None}, {'time': '2019-09-26 16:35:10', 'ftime': '2019-09-26 16:35:10', 'context': '[通辽市]到通辽市【通辽】', 'location': None}, {'time': '2019-09-26 14:33:24', 'ftime': '2019-09-26 14:33:24', 'context': '[通辽市]通辽市【通辽018】，【谷鹏/13274840175】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-17 11:32:17', 'ftime': '2019-09-17 11:32:17', 'context': '[安徽合肥安农大公司]快件已被 安农大北二门快递服务中心菜鸟驿站 代签收如有问题请联系叶毛江【18656592271】。', 'location': '安徽合肥安农大公司'}, {'time': '2019-09-17 09:36:27', 'ftime': '2019-09-17 09:36:27', 'context': '[安徽合肥安农大公司]进行派件扫描；派送业务员：叶毛江；联系电话：18656592271', 'location': '安徽合肥安农大公司'}, {'time': '2019-09-17 08:51:00', 'ftime': '2019-09-17 08:51:00', 'context': '[安徽合肥安农大公司]到达目的地网点，快件很快进行派送', 'location': '安徽合肥安农大公司'}, {'time': '2019-09-17 01:53:29', 'ftime': '2019-09-17 01:53:29', 'context': '[安徽合肥分拨中心]从站点发出，本次转运目的地：安徽合肥安农大公司', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-17 01:21:51', 'ftime': '2019-09-17 01:21:51', 'context': '[安徽合肥分拨中心]在分拨中心进行卸车扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-16 07:11:19', 'ftime': '2019-09-16 07:11:19', 'context': '[广东广州分拨中心]进行装车扫描，发往：安徽合肥分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-16 07:08:38', 'ftime': '2019-09-16 07:08:38', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-16 03:56:40', 'ftime': '2019-09-16 03:56:40', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：安徽合肥网点包', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-15 23:30:11', 'ftime': '2019-09-15 23:30:11', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.07099</v>
+        <v>0.075406</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009885</v>
+        <v>0.010569</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (10).xlsx
+++ b/data_excel/接口测试用例_ (10).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 10:07:06', 'context': '查无结果', 'ftime': '2019-09-08 10:07:06'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 10:22:09', 'context': '查无结果', 'ftime': '2019-09-28 10:22:09'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.065502</v>
+        <v>0.06343699999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.007633</v>
+        <v>0.01561</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:35:28', 'ftime': '2019-09-29 08:35:28', 'context': '[广东深圳公司龙岗区龙华龙胜分部]进行派件扫描；派送业务员：朱秋茂；联系电话：18576401252', 'location': '广东深圳公司龙岗区龙华龙胜分部'}, {'time': '2019-09-28 18:08:18', 'ftime': '2019-09-28 18:08:18', 'context': '[广东深圳公司]进行快件扫描，发往：广东深圳公司龙岗区龙华龙胜分部', 'location': '广东深圳公司'}, {'time': '2019-09-28 17:57:45', 'ftime': '2019-09-28 17:57:45', 'context': '[广东深圳公司]在分拨中心进行卸车扫描', 'location': '广东深圳公司'}, {'time': '2019-09-26 01:56:43', 'ftime': '2019-09-26 01:56:43', 'context': '[北京分拨中心]进行装车扫描，发往：广东深圳分拨中心', 'location': '北京分拨中心'}, {'time': '2019-09-26 01:43:18', 'ftime': '2019-09-26 01:43:18', 'context': '[北京分拨中心]进行中转集包扫描，发往：深中市内包', 'location': '北京分拨中心'}, {'time': '2019-09-26 01:41:13', 'ftime': '2019-09-26 01:41:13', 'context': '[北京分拨中心]在分拨中心进行称重扫描', 'location': '北京分拨中心'}, {'time': '2019-09-25 20:41:07', 'ftime': '2019-09-25 20:41:07', 'context': '[北京西城区月坛公司]进行揽件扫描', 'location': '北京西城区月坛公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-01 19:27:03', 'ftime': '2018-11-01 19:27:03', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-01 09:48:00', 'ftime': '2018-11-01 09:48:00', 'context': '配送员开始配送，请您准备收货，配送员，张勇飞，手机号，15737496309', 'location': None}, {'time': '2018-11-01 07:55:50', 'ftime': '2018-11-01 07:55:50', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-01 07:55:49', 'ftime': '2018-11-01 07:55:49', 'context': '货物已到达【许昌长葛营业部】', 'location': None}, {'time': '2018-10-31 08:04:39', 'ftime': '2018-10-31 08:04:39', 'context': '货物已完成分拣，离开【郑州分拨中心】', 'location': None}, {'time': '2018-10-31 07:52:03', 'ftime': '2018-10-31 07:52:03', 'context': '货物已到达【郑州分拨中心】', 'location': None}, {'time': '2018-10-29 21:30:28', 'ftime': '2018-10-29 21:30:28', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-10-29 21:17:11', 'ftime': '2018-10-29 21:17:11', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-10-29 18:13:11', 'ftime': '2018-10-29 18:13:11', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-10-29 18:13:11', 'ftime': '2018-10-29 18:13:11', 'context': '配送员潘伟雄已经揽收完成', 'location': None}, {'time': '2018-10-29 17:11:11', 'ftime': '2018-10-29 17:11:11', 'context': '配送员潘伟雄操作再取，再取原因为：发货人备货中,新的预约时间为10月30日20:00-21:00', 'location': None}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.077787</v>
+        <v>0.07378700000000001</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011364</v>
+        <v>0.009316</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 15:39:34', 'ftime': '2019-09-27 15:39:34', 'context': '[河南郑州公司正道花园分部]快件已被 金融广场丰巢快递柜FC3711053 代签收如有问题请联系屠苏【18236969244】。', 'location': '河南郑州公司正道花园分部'}, {'time': '2019-09-27 15:12:17', 'ftime': '2019-09-27 15:12:17', 'context': '[河南郑州公司正道花园分部]进行派件扫描；派送业务员：屠苏；联系电话：18236969244', 'location': '河南郑州公司正道花园分部'}, {'time': '2019-09-27 14:41:14', 'ftime': '2019-09-27 14:41:14', 'context': '[河南郑州公司正道花园分部]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司正道花园分部'}, {'time': '2019-09-27 11:49:37', 'ftime': '2019-09-27 11:49:37', 'context': '[河南郑州公司]进行快件扫描，发往：河南郑州公司正道花园分部', 'location': '河南郑州公司'}, {'time': '2019-09-27 08:17:31', 'ftime': '2019-09-27 08:17:31', 'context': '[河南郑州公司]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司'}, {'time': '2019-09-27 07:03:56', 'ftime': '2019-09-27 07:03:56', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：河南郑州公司', 'location': '河南郑州分拨中心'}, {'time': '2019-09-27 06:56:56', 'ftime': '2019-09-27 06:56:56', 'context': '[河南郑州分拨中心]在分拨中心进行称重扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-09-26 04:30:38', 'ftime': '2019-09-26 04:30:38', 'context': '[广东广州分拨中心]进行装车扫描，发往：河南郑州分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 04:28:55', 'ftime': '2019-09-26 04:28:55', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-26 03:25:50', 'ftime': '2019-09-26 03:25:50', 'context': '[广东广州白云区大源公司]进行下级地点扫描，发往：河南郑州公司', 'location': '广东广州白云区大源公司'}, {'time': '2019-09-26 01:47:31', 'ftime': '2019-09-26 01:47:31', 'context': '[广东广州白云区大源公司]进行揽件扫描', 'location': '广东广州白云区大源公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-08 16:25:55', 'ftime': '2018-11-08 16:25:55', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-08 08:42:53', 'ftime': '2018-11-08 08:42:53', 'context': '配送员开始配送，请您准备收货，配送员，左小明，手机号，17705697486', 'location': None}, {'time': '2018-11-08 08:05:55', 'ftime': '2018-11-08 08:05:55', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-08 08:05:54', 'ftime': '2018-11-08 08:05:54', 'context': '货物已到达【合肥水家湖站】', 'location': None}, {'time': '2018-11-08 01:00:45', 'ftime': '2018-11-08 01:00:45', 'context': '货物已完成分拣，离开【合肥分拨中心】', 'location': None}, {'time': '2018-11-08 00:59:00', 'ftime': '2018-11-08 00:59:00', 'context': '货物已到达【合肥分拨中心】', 'location': None}, {'time': '2018-11-07 13:59:20', 'ftime': '2018-11-07 13:59:20', 'context': '货物已完成分拣，离开【昆山千灯亚一分拣中心】', 'location': None}, {'time': '2018-11-07 13:58:20', 'ftime': '2018-11-07 13:58:20', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-07 13:58:20', 'ftime': '2018-11-07 13:58:20', 'context': '货物已到达【昆山千灯亚一分拣中心】', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07255</v>
+        <v>0.083679</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010167</v>
+        <v>0.01691</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 03:07:09', 'ftime': '2019-09-28 03:07:09', 'context': '【虎门转运中心】 已发出 下一站 【青岛转运中心】', 'location': ''}, {'time': '2019-09-28 02:53:34', 'ftime': '2019-09-28 02:53:34', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 21:57:12', 'ftime': '2019-09-27 21:57:12', 'context': '【广东省汕尾市】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-09-27 20:59:08', 'ftime': '2019-09-27 20:59:08', 'context': '【广东省汕尾市公司】 已打包', 'location': ''}, {'time': '2019-09-27 20:38:20', 'ftime': '2019-09-27 20:38:20', 'context': '【广东省汕尾市公司】 已收件 取件人: 林桂勤 (95554)', 'location': ''}, {'time': '2019-09-27 18:27:04', 'ftime': '2019-09-27 18:27:04', 'context': '【广东省汕尾市城区莲塘分部公司】 已收件 取件人: 吴育钦 (17727209211)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-25 23:36:10', 'ftime': '2019-09-25 23:36:10', 'context': '由虎门中心 发往 湛江一', 'location': ''}, {'time': '2019-09-25 20:50:54', 'ftime': '2019-09-25 20:50:54', 'context': '快件已到达虎门中心 上一站是 北京中心', 'location': ''}, {'time': '2019-09-22 21:36:56', 'ftime': '2019-09-22 21:36:56', 'context': '由北京中心 发往 虎门中心', 'location': ''}, {'time': '2019-09-22 21:35:40', 'ftime': '2019-09-22 21:35:40', 'context': '快件已到达北京中心 上一站是 霸州胜芳六', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.074226</v>
+        <v>0.072033</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010463</v>
+        <v>0.010033</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-04 13:24:57', 'ftime': '2018-11-04 13:24:57', 'context': '订单已由公司前台代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-04 08:28:53', 'ftime': '2018-11-04 08:28:53', 'context': '配送员开始配送，请您准备收货，配送员，杨鹏，手机号，15619198890', 'location': None}, {'time': '2018-11-04 08:04:04', 'ftime': '2018-11-04 08:04:04', 'context': '货物已到达【铜川王益站】', 'location': None}, {'time': '2018-11-04 08:04:03', 'ftime': '2018-11-04 08:04:03', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-03 19:27:53', 'ftime': '2018-11-03 19:27:53', 'context': '货物已完成分拣，离开【西安耿镇分拣中心】', 'location': None}, {'time': '2018-11-03 19:06:00', 'ftime': '2018-11-03 19:06:00', 'context': '货物已到达【西安耿镇分拣中心】', 'location': None}, {'time': '2018-11-03 17:48:25', 'ftime': '2018-11-03 17:48:25', 'context': '货物已完成分拣，离开【西安港务分拣中心】', 'location': None}, {'time': '2018-11-03 17:29:57', 'ftime': '2018-11-03 17:29:57', 'context': '货物已到达【西安港务分拣中心】', 'location': None}, {'time': '2018-11-02 21:30:09', 'ftime': '2018-11-02 21:30:09', 'context': '货物已完成分拣，离开【北京顺义分拣中心】', 'location': None}, {'time': '2018-11-02 21:26:09', 'ftime': '2018-11-02 21:26:09', 'context': '货物已到达【北京顺义分拣中心】', 'location': None}, {'time': '2018-11-02 17:48:11', 'ftime': '2018-11-02 17:48:11', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-02 17:48:11', 'ftime': '2018-11-02 17:48:11', 'context': '配送员马虎已经揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-04 11:45:02', 'ftime': '2018-11-04 11:45:02', 'context': '[广东东莞麻涌公司]快件已被 中大新华学院东莞校区18栋菜鸟驿站 代签收如有问题请联系中大代收点【18128683230】。', 'location': None}, {'time': '2018-11-04 10:24:44', 'ftime': '2018-11-04 10:24:44', 'context': '[广东东莞麻涌公司]进行派件扫描；派送业务员：中大代收点；联系电话：18128683230', 'location': None}, {'time': '2018-11-03 21:10:01', 'ftime': '2018-11-03 21:10:01', 'context': '[广东东莞分拨中心]从站点发出，本次转运目的地：广东东莞麻涌公司', 'location': None}, {'time': '2018-11-03 20:40:39', 'ftime': '2018-11-03 20:40:39', 'context': '[广东东莞分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2018-11-02 23:21:31', 'ftime': '2018-11-02 23:21:31', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：广东东莞分拨中心', 'location': None}, {'time': '2018-11-02 23:16:58', 'ftime': '2018-11-02 23:16:58', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2018-11-02 19:19:37', 'ftime': '2018-11-02 19:19:37', 'context': '[浙江义乌季宅公司和睦电子商务服务部]进行下级地点扫描，发往：广东东莞网点包', 'location': None}, {'time': '2018-11-02 19:17:19', 'ftime': '2018-11-02 19:17:19', 'context': '[浙江义乌季宅公司和睦电子商务服务部]进行揽件扫描', 'location': None}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.071274</v>
+        <v>0.067651</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.013343</v>
+        <v>0.07137</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 20:46:07', 'ftime': '2019-09-27 20:46:07', 'context': '【杭州转运中心】 已发出 下一站 【肃宁转运中心】', 'location': ''}, {'time': '2019-09-27 20:42:37', 'ftime': '2019-09-27 20:42:37', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 05:06:26', 'ftime': '2019-09-27 05:06:26', 'context': '【金华转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-26 23:23:26', 'ftime': '2019-09-26 23:23:26', 'context': '【金华转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 21:03:03', 'ftime': '2019-09-26 21:03:03', 'context': '【浙江省金华市永康市】 已发出 下一站 【金华转运中心】', 'location': ''}, {'time': '2019-09-26 20:53:13', 'ftime': '2019-09-26 20:53:13', 'context': '【浙江省金华市永康市公司】 已收件 取件人: 蒋海洋 (18276897888)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-15 19:40:25', 'ftime': '2018-11-15 19:40:25', 'context': '客户签收人 :圆通下午六点派送 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18521841418', 'location': None}, {'time': '2018-11-15 14:58:13', 'ftime': '2018-11-15 14:58:13', 'context': '【安徽省合肥市磨店公司】 派件中 派件人 :郭昌杰 电话 18521841418 ', 'location': None}, {'time': '2018-11-14 15:32:45', 'ftime': '2018-11-14 15:32:45', 'context': '【合肥转运中心】 已发出 下一站 【安徽省合肥市磨店】', 'location': None}, {'time': '2018-11-14 15:27:25', 'ftime': '2018-11-14 15:27:25', 'context': '【合肥转运中心公司】 已收入', 'location': None}, {'time': '2018-11-13 10:04:51', 'ftime': '2018-11-13 10:04:51', 'context': '【上海转运中心】 已发出 下一站 【合肥转运中心】', 'location': None}, {'time': '2018-11-13 10:01:02', 'ftime': '2018-11-13 10:01:02', 'context': '【上海转运中心公司】 已收入', 'location': None}, {'time': '2018-11-12 22:12:06', 'ftime': '2018-11-12 22:12:06', 'context': '【上海市青浦区赵巷】 已发出 下一站 【上海转运中心】', 'location': None}, {'time': '2018-11-12 20:36:48', 'ftime': '2018-11-12 20:36:48', 'context': '【上海市青浦区赵巷公司】 已打包', 'location': None}, {'time': '2018-11-12 20:33:45', 'ftime': '2018-11-12 20:33:45', 'context': '【上海市青浦区赵巷公司】 已收件 取件人 :吴晨丽 (13795444442)', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.071524</v>
+        <v>0.07983</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.011507</v>
+        <v>0.058887</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 13:49:20', 'ftime': '2019-09-23 13:49:20', 'context': '[潜江市]潜江市【潜江市】，拍照签收 已签收', 'location': '潜江市'}, {'time': '2019-09-23 08:59:56', 'ftime': '2019-09-23 08:59:56', 'context': '[潜江市]潜江市【潜江市】，【梁正慨/15346648871】正在派件', 'location': '潜江市'}, {'time': '2019-09-23 08:50:23', 'ftime': '2019-09-23 08:50:23', 'context': '[潜江市]到潜江市【潜江市】', 'location': '潜江市'}, {'time': '2019-09-23 02:51:08', 'ftime': '2019-09-23 02:51:08', 'context': '[荆州市]荆州市【荆州集散中心】，正发往【潜江市】', 'location': '荆州市'}, {'time': '2019-09-23 02:28:32', 'ftime': '2019-09-23 02:28:32', 'context': '[荆州市]到荆州市【荆州集散中心】', 'location': '荆州市'}, {'time': '2019-09-22 19:57:05', 'ftime': '2019-09-22 19:57:05', 'context': '[武汉市]武汉市【武汉转运中心】，正发往【荆州集散中心】', 'location': '武汉市'}, {'time': '2019-09-22 19:53:05', 'ftime': '2019-09-22 19:53:05', 'context': '[武汉市]到武汉市【武汉转运中心】', 'location': '武汉市'}, {'time': '2019-09-21 07:41:28', 'ftime': '2019-09-21 07:41:28', 'context': '[石家庄市]石家庄市【石家庄转运中心】，正发往【武汉转运中心】', 'location': '石家庄市'}, {'time': '2019-09-21 01:39:52', 'ftime': '2019-09-21 01:39:52', 'context': '[石家庄市]石家庄市【石家庄转运中心】，正发往【武汉转运中心】', 'location': '石家庄市'}, {'time': '2019-09-21 01:31:42', 'ftime': '2019-09-21 01:31:42', 'context': '[石家庄市]到石家庄市【石家庄转运中心】', 'location': '石家庄市'}, {'time': '2019-09-20 15:10:07', 'ftime': '2019-09-20 15:10:07', 'context': '[邢台市]邢台市【广宗县】，【任天恩/15933697336】已揽收', 'location': '邢台市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:23:30', 'ftime': '2019-09-29 08:23:30', 'context': '运输中,到达[福州前横路]入库,待中转', 'location': ''}, {'time': '2019-09-28 20:05:08', 'ftime': '2019-09-28 20:05:08', 'context': '运输中,到达中转地[福州前横路],车辆正在卸货', 'location': ''}, {'time': '2019-09-28 20:04:54', 'ftime': '2019-09-28 20:04:54', 'context': '运输中,到达中转地[福州前横路],等待卸车', 'location': ''}, {'time': '2019-09-28 19:33:00', 'ftime': '2019-09-28 19:33:00', 'context': '运输中,货物由福州大利嘉前往福州前横路途中', 'location': ''}, {'time': '2019-09-28 19:29:17', 'ftime': '2019-09-28 19:29:17', 'context': '货物在[福州大利嘉]完成装车,等待出发', 'location': ''}, {'time': '2019-09-28 15:17:30', 'ftime': '2019-09-28 15:17:30', 'context': '货物已承接,于[福州大利嘉]公司入库', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.07709100000000001</v>
+        <v>0.077434</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009960999999999999</v>
+        <v>0.01172</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 10:07:07', 'context': '查无结果', 'ftime': '2019-09-02 10:07:07'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 12:40:17', 'ftime': '2019-09-27 12:40:17', 'context': '已签收,签收人是（同事代签）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员黄乐强，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-27 10:41:55', 'ftime': '2019-09-27 10:41:55', 'context': '广东顺德勒流-黄乐强-派件中', 'location': ''}, {'time': '2019-09-27 10:02:39', 'ftime': '2019-09-27 10:02:39', 'context': '已到达-广东顺德勒流', 'location': ''}, {'time': '2019-09-26 21:23:39', 'ftime': '2019-09-26 21:23:39', 'context': '广东中山转运中心-已发往-广东顺德勒流', 'location': ''}, {'time': '2019-09-26 21:11:09', 'ftime': '2019-09-26 21:11:09', 'context': '已到达-广东中山转运中心', 'location': ''}, {'time': '2019-09-26 02:49:54', 'ftime': '2019-09-26 02:49:54', 'context': '湖南长沙转运中心-已装袋发往-广东中山转运中心', 'location': ''}, {'time': '2019-09-26 02:49:54', 'ftime': '2019-09-26 02:49:54', 'context': '湖南长沙转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 02:43:38', 'ftime': '2019-09-26 02:43:38', 'context': '已到达-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-26 02:43:38', 'ftime': '2019-09-26 02:43:38', 'context': '快件已在【湖南长沙转运中心】进行卸车，扫描员【出港称重03】', 'location': ''}, {'time': '2019-09-25 23:15:22', 'ftime': '2019-09-25 23:15:22', 'context': '湖南常德转运中心-已装袋发往-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-25 23:15:22', 'ftime': '2019-09-25 23:15:22', 'context': '湖南常德转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 20:52:35', 'ftime': '2019-09-25 20:52:35', 'context': '湖南常德转运中心-已发往-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-25 20:52:35', 'ftime': '2019-09-25 20:52:35', 'context': '湖南常德转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 20:52:04', 'ftime': '2019-09-25 20:52:04', 'context': '湖南常德转运中心-已装袋发往-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-25 20:34:29', 'ftime': '2019-09-25 20:34:29', 'context': '已到达-湖南常德转运中心', 'location': ''}, {'time': '2019-09-25 17:46:24', 'ftime': '2019-09-25 17:46:24', 'context': '湖南慈利公司-老永鑫鞋厂院内(0744-2137158)-已收件', 'location': ''}, {'time': '2019-09-25 17:45:48', 'ftime': '2019-09-25 17:45:48', 'context': '湖南慈利公司-已发往-湖南常德转运中心', 'location': ''}, {'time': '2019-09-25 17:45:48', 'ftime': '2019-09-25 17:45:48', 'context': '湖南慈利公司-已进行装车扫描', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.06407599999999999</v>
+        <v>0.074849</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009299</v>
+        <v>0.011283</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-17 11:32:17', 'ftime': '2019-09-17 11:32:17', 'context': '[安徽合肥安农大公司]快件已被 安农大北二门快递服务中心菜鸟驿站 代签收如有问题请联系叶毛江【18656592271】。', 'location': '安徽合肥安农大公司'}, {'time': '2019-09-17 09:36:27', 'ftime': '2019-09-17 09:36:27', 'context': '[安徽合肥安农大公司]进行派件扫描；派送业务员：叶毛江；联系电话：18656592271', 'location': '安徽合肥安农大公司'}, {'time': '2019-09-17 08:51:00', 'ftime': '2019-09-17 08:51:00', 'context': '[安徽合肥安农大公司]到达目的地网点，快件很快进行派送', 'location': '安徽合肥安农大公司'}, {'time': '2019-09-17 01:53:29', 'ftime': '2019-09-17 01:53:29', 'context': '[安徽合肥分拨中心]从站点发出，本次转运目的地：安徽合肥安农大公司', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-17 01:21:51', 'ftime': '2019-09-17 01:21:51', 'context': '[安徽合肥分拨中心]在分拨中心进行卸车扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-16 07:11:19', 'ftime': '2019-09-16 07:11:19', 'context': '[广东广州分拨中心]进行装车扫描，发往：安徽合肥分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-16 07:08:38', 'ftime': '2019-09-16 07:08:38', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-16 03:56:40', 'ftime': '2019-09-16 03:56:40', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：安徽合肥网点包', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-15 23:30:11', 'ftime': '2019-09-15 23:30:11', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-25 23:12:42', 'ftime': '2019-09-25 23:12:42', 'context': '[中国 深圳市]离开深圳处理中心,发往阿拉木图', 'location': None}, {'time': '2019-09-25 20:25:42', 'ftime': '2019-09-25 20:25:42', 'context': '[中国 深圳市]到达深圳处理中心', 'location': None}, {'time': '2019-09-24 20:25:33', 'ftime': '2019-09-24 20:25:33', 'context': '[广州市]已离开广东省邮政速递物流国际业务营业部梅花园揽投站，发往深圳国际转运中心', 'location': None}, {'time': '2019-09-24 17:45:00', 'ftime': '2019-09-24 17:45:00', 'context': '[广州市]广东省邮政速递物流国际业务营业部梅花园揽投站已收件（彭明）', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.075406</v>
+        <v>0.07058</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010569</v>
+        <v>0.010584</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (10).xlsx
+++ b/data_excel/接口测试用例_ (10).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 10:22:09', 'context': '查无结果', 'ftime': '2019-09-28 10:22:09'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-08-19 19:09:00', 'ftime': '2019-08-19 19:09:00', 'context': '【呼和浩特转运中心】 已发出 下一站 【北京转运中心】', 'location': ''}, {'time': '2019-08-19 18:44:00', 'ftime': '2019-08-19 18:44:00', 'context': '【呼和浩特转运中心】 已打包', 'location': ''}, {'time': '2019-08-19 18:27:00', 'ftime': '2019-08-19 18:27:00', 'context': '【呼和浩特转运中心】 已收入', 'location': ''}, {'time': '2019-08-19 17:36:00', 'ftime': '2019-08-19 17:36:00', 'context': '【内蒙古呼和浩特市如意公司】 已收件', 'location': ''}, {'time': '2019-08-19 15:29:00', 'ftime': '2019-08-19 15:29:00', 'context': '【中国】清关完毕，进入内地派送', 'location': ''}, {'time': '2019-08-19 11:14:00', 'ftime': '2019-08-19 11:14:00', 'context': '【中国】货物进入清关中', 'location': ''}, {'time': '2019-08-19 08:14:00', 'ftime': '2019-08-19 08:14:00', 'context': '【中国】货物到达海关，等待清关', 'location': ''}, {'time': '2019-08-16 00:38:00', 'ftime': '2019-08-16 00:38:00', 'context': '【中国】货物到达中国大陆', 'location': ''}, {'time': '2019-08-14 11:12:00', 'ftime': '2019-08-14 11:12:00', 'context': '【飞行中】货物离开加拿大', 'location': ''}, {'time': '2019-08-12 07:11:00', 'ftime': '2019-08-12 07:11:00', 'context': '【加拿大】货物送达多伦多机场，等待起飞', 'location': ''}, {'time': '2019-08-11 11:20:00', 'ftime': '2019-08-11 11:20:00', 'context': '【加拿大】货物到达多伦多仓库', 'location': ''}, {'time': '2019-08-10 22:23:00', 'ftime': '2019-08-10 22:23:00', 'context': '疯狂快递门店已揽收', 'location': ''}, {'time': '2019-08-08 21:59:00', 'ftime': '2019-08-08 21:59:00', 'context': '货单上传', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06343699999999999</v>
+        <v>0.075667</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.01561</v>
+        <v>0.009645000000000001</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-01 19:27:03', 'ftime': '2018-11-01 19:27:03', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-01 09:48:00', 'ftime': '2018-11-01 09:48:00', 'context': '配送员开始配送，请您准备收货，配送员，张勇飞，手机号，15737496309', 'location': None}, {'time': '2018-11-01 07:55:50', 'ftime': '2018-11-01 07:55:50', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-01 07:55:49', 'ftime': '2018-11-01 07:55:49', 'context': '货物已到达【许昌长葛营业部】', 'location': None}, {'time': '2018-10-31 08:04:39', 'ftime': '2018-10-31 08:04:39', 'context': '货物已完成分拣，离开【郑州分拨中心】', 'location': None}, {'time': '2018-10-31 07:52:03', 'ftime': '2018-10-31 07:52:03', 'context': '货物已到达【郑州分拨中心】', 'location': None}, {'time': '2018-10-29 21:30:28', 'ftime': '2018-10-29 21:30:28', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-10-29 21:17:11', 'ftime': '2018-10-29 21:17:11', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-10-29 18:13:11', 'ftime': '2018-10-29 18:13:11', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-10-29 18:13:11', 'ftime': '2018-10-29 18:13:11', 'context': '配送员潘伟雄已经揽收完成', 'location': None}, {'time': '2018-10-29 17:11:11', 'ftime': '2018-10-29 17:11:11', 'context': '配送员潘伟雄操作再取，再取原因为：发货人备货中,新的预约时间为10月30日20:00-21:00', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-17 10:28:20', 'context': '查无结果', 'ftime': '2019-09-17 10:28:20'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.07378700000000001</v>
+        <v>0.06421200000000001</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009316</v>
+        <v>0.009835999999999999</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-08 16:25:55', 'ftime': '2018-11-08 16:25:55', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-08 08:42:53', 'ftime': '2018-11-08 08:42:53', 'context': '配送员开始配送，请您准备收货，配送员，左小明，手机号，17705697486', 'location': None}, {'time': '2018-11-08 08:05:55', 'ftime': '2018-11-08 08:05:55', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-08 08:05:54', 'ftime': '2018-11-08 08:05:54', 'context': '货物已到达【合肥水家湖站】', 'location': None}, {'time': '2018-11-08 01:00:45', 'ftime': '2018-11-08 01:00:45', 'context': '货物已完成分拣，离开【合肥分拨中心】', 'location': None}, {'time': '2018-11-08 00:59:00', 'ftime': '2018-11-08 00:59:00', 'context': '货物已到达【合肥分拨中心】', 'location': None}, {'time': '2018-11-07 13:59:20', 'ftime': '2018-11-07 13:59:20', 'context': '货物已完成分拣，离开【昆山千灯亚一分拣中心】', 'location': None}, {'time': '2018-11-07 13:58:20', 'ftime': '2018-11-07 13:58:20', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-07 13:58:20', 'ftime': '2018-11-07 13:58:20', 'context': '货物已到达【昆山千灯亚一分拣中心】', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:28:20', 'context': '查无结果', 'ftime': '2019-09-24 10:28:20'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.083679</v>
+        <v>0.063345</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.01691</v>
+        <v>0.01075</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-25 23:36:10', 'ftime': '2019-09-25 23:36:10', 'context': '由虎门中心 发往 湛江一', 'location': ''}, {'time': '2019-09-25 20:50:54', 'ftime': '2019-09-25 20:50:54', 'context': '快件已到达虎门中心 上一站是 北京中心', 'location': ''}, {'time': '2019-09-22 21:36:56', 'ftime': '2019-09-22 21:36:56', 'context': '由北京中心 发往 虎门中心', 'location': ''}, {'time': '2019-09-22 21:35:40', 'ftime': '2019-09-22 21:35:40', 'context': '快件已到达北京中心 上一站是 霸州胜芳六', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:28:21', 'context': '查无结果', 'ftime': '2019-09-25 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.072033</v>
+        <v>0.06404700000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010033</v>
+        <v>0.01033</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-04 11:45:02', 'ftime': '2018-11-04 11:45:02', 'context': '[广东东莞麻涌公司]快件已被 中大新华学院东莞校区18栋菜鸟驿站 代签收如有问题请联系中大代收点【18128683230】。', 'location': None}, {'time': '2018-11-04 10:24:44', 'ftime': '2018-11-04 10:24:44', 'context': '[广东东莞麻涌公司]进行派件扫描；派送业务员：中大代收点；联系电话：18128683230', 'location': None}, {'time': '2018-11-03 21:10:01', 'ftime': '2018-11-03 21:10:01', 'context': '[广东东莞分拨中心]从站点发出，本次转运目的地：广东东莞麻涌公司', 'location': None}, {'time': '2018-11-03 20:40:39', 'ftime': '2018-11-03 20:40:39', 'context': '[广东东莞分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2018-11-02 23:21:31', 'ftime': '2018-11-02 23:21:31', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：广东东莞分拨中心', 'location': None}, {'time': '2018-11-02 23:16:58', 'ftime': '2018-11-02 23:16:58', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2018-11-02 19:19:37', 'ftime': '2018-11-02 19:19:37', 'context': '[浙江义乌季宅公司和睦电子商务服务部]进行下级地点扫描，发往：广东东莞网点包', 'location': None}, {'time': '2018-11-02 19:17:19', 'ftime': '2018-11-02 19:17:19', 'context': '[浙江义乌季宅公司和睦电子商务服务部]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:12:06', 'ftime': '2019-09-29 09:12:06', 'context': '广东佛山里水甘蕉分部-王波带派(18029351967)-派件中', 'location': ''}, {'time': '2019-09-29 08:27:06', 'ftime': '2019-09-29 08:27:06', 'context': '已到达-广东佛山里水甘蕉分部', 'location': ''}, {'time': '2019-09-29 06:17:37', 'ftime': '2019-09-29 06:17:37', 'context': '广东佛山转运中心-已发往-广东佛山里水甘蕉分部', 'location': ''}, {'time': '2019-09-29 06:05:52', 'ftime': '2019-09-29 06:05:52', 'context': '已到达-广东佛山转运中心', 'location': ''}, {'time': '2019-09-29 00:38:46', 'ftime': '2019-09-29 00:38:46', 'context': '广东广州天骄分拨中心-已装袋发往-广东佛山转运中心', 'location': ''}, {'time': '2019-09-29 00:38:46', 'ftime': '2019-09-29 00:38:46', 'context': '广东广州天骄分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 00:25:28', 'ftime': '2019-09-29 00:25:28', 'context': '已到达-广东广州天骄分拨中心', 'location': ''}, {'time': '2019-09-28 23:22:12', 'ftime': '2019-09-28 23:22:12', 'context': '广东广州火车站点-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 23:22:12', 'ftime': '2019-09-28 23:22:12', 'context': '广东广州火车站点-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 23:03:13', 'ftime': '2019-09-28 23:03:13', 'context': '广东广州火车站点-直营揽收(18138701110,020-37183133)-已收件', 'location': ''}, {'time': '2019-09-28 21:02:06', 'ftime': '2019-09-28 21:02:06', 'context': '广东广州火车站点-张立涛(13250578659,020-37183133)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.067651</v>
+        <v>0.07065299999999999</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.07137</v>
+        <v>0.034879</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-15 19:40:25', 'ftime': '2018-11-15 19:40:25', 'context': '客户签收人 :圆通下午六点派送 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18521841418', 'location': None}, {'time': '2018-11-15 14:58:13', 'ftime': '2018-11-15 14:58:13', 'context': '【安徽省合肥市磨店公司】 派件中 派件人 :郭昌杰 电话 18521841418 ', 'location': None}, {'time': '2018-11-14 15:32:45', 'ftime': '2018-11-14 15:32:45', 'context': '【合肥转运中心】 已发出 下一站 【安徽省合肥市磨店】', 'location': None}, {'time': '2018-11-14 15:27:25', 'ftime': '2018-11-14 15:27:25', 'context': '【合肥转运中心公司】 已收入', 'location': None}, {'time': '2018-11-13 10:04:51', 'ftime': '2018-11-13 10:04:51', 'context': '【上海转运中心】 已发出 下一站 【合肥转运中心】', 'location': None}, {'time': '2018-11-13 10:01:02', 'ftime': '2018-11-13 10:01:02', 'context': '【上海转运中心公司】 已收入', 'location': None}, {'time': '2018-11-12 22:12:06', 'ftime': '2018-11-12 22:12:06', 'context': '【上海市青浦区赵巷】 已发出 下一站 【上海转运中心】', 'location': None}, {'time': '2018-11-12 20:36:48', 'ftime': '2018-11-12 20:36:48', 'context': '【上海市青浦区赵巷公司】 已打包', 'location': None}, {'time': '2018-11-12 20:33:45', 'ftime': '2018-11-12 20:33:45', 'context': '【上海市青浦区赵巷公司】 已收件 取件人 :吴晨丽 (13795444442)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:28:21', 'context': '查无结果', 'ftime': '2019-09-06 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.07983</v>
+        <v>0.06962</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.058887</v>
+        <v>0.009521</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:23:30', 'ftime': '2019-09-29 08:23:30', 'context': '运输中,到达[福州前横路]入库,待中转', 'location': ''}, {'time': '2019-09-28 20:05:08', 'ftime': '2019-09-28 20:05:08', 'context': '运输中,到达中转地[福州前横路],车辆正在卸货', 'location': ''}, {'time': '2019-09-28 20:04:54', 'ftime': '2019-09-28 20:04:54', 'context': '运输中,到达中转地[福州前横路],等待卸车', 'location': ''}, {'time': '2019-09-28 19:33:00', 'ftime': '2019-09-28 19:33:00', 'context': '运输中,货物由福州大利嘉前往福州前横路途中', 'location': ''}, {'time': '2019-09-28 19:29:17', 'ftime': '2019-09-28 19:29:17', 'context': '货物在[福州大利嘉]完成装车,等待出发', 'location': ''}, {'time': '2019-09-28 15:17:30', 'ftime': '2019-09-28 15:17:30', 'context': '货物已承接,于[福州大利嘉]公司入库', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 10:28:21', 'context': '查无结果', 'ftime': '2019-09-23 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.077434</v>
+        <v>0.06790499999999999</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.01172</v>
+        <v>0.009431</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 12:40:17', 'ftime': '2019-09-27 12:40:17', 'context': '已签收,签收人是（同事代签）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员黄乐强，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-27 10:41:55', 'ftime': '2019-09-27 10:41:55', 'context': '广东顺德勒流-黄乐强-派件中', 'location': ''}, {'time': '2019-09-27 10:02:39', 'ftime': '2019-09-27 10:02:39', 'context': '已到达-广东顺德勒流', 'location': ''}, {'time': '2019-09-26 21:23:39', 'ftime': '2019-09-26 21:23:39', 'context': '广东中山转运中心-已发往-广东顺德勒流', 'location': ''}, {'time': '2019-09-26 21:11:09', 'ftime': '2019-09-26 21:11:09', 'context': '已到达-广东中山转运中心', 'location': ''}, {'time': '2019-09-26 02:49:54', 'ftime': '2019-09-26 02:49:54', 'context': '湖南长沙转运中心-已装袋发往-广东中山转运中心', 'location': ''}, {'time': '2019-09-26 02:49:54', 'ftime': '2019-09-26 02:49:54', 'context': '湖南长沙转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 02:43:38', 'ftime': '2019-09-26 02:43:38', 'context': '已到达-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-26 02:43:38', 'ftime': '2019-09-26 02:43:38', 'context': '快件已在【湖南长沙转运中心】进行卸车，扫描员【出港称重03】', 'location': ''}, {'time': '2019-09-25 23:15:22', 'ftime': '2019-09-25 23:15:22', 'context': '湖南常德转运中心-已装袋发往-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-25 23:15:22', 'ftime': '2019-09-25 23:15:22', 'context': '湖南常德转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 20:52:35', 'ftime': '2019-09-25 20:52:35', 'context': '湖南常德转运中心-已发往-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-25 20:52:35', 'ftime': '2019-09-25 20:52:35', 'context': '湖南常德转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 20:52:04', 'ftime': '2019-09-25 20:52:04', 'context': '湖南常德转运中心-已装袋发往-湖南长沙转运中心', 'location': ''}, {'time': '2019-09-25 20:34:29', 'ftime': '2019-09-25 20:34:29', 'context': '已到达-湖南常德转运中心', 'location': ''}, {'time': '2019-09-25 17:46:24', 'ftime': '2019-09-25 17:46:24', 'context': '湖南慈利公司-老永鑫鞋厂院内(0744-2137158)-已收件', 'location': ''}, {'time': '2019-09-25 17:45:48', 'ftime': '2019-09-25 17:45:48', 'context': '湖南慈利公司-已发往-湖南常德转运中心', 'location': ''}, {'time': '2019-09-25 17:45:48', 'ftime': '2019-09-25 17:45:48', 'context': '湖南慈利公司-已进行装车扫描', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:28:21', 'context': '查无结果', 'ftime': '2019-09-06 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.074849</v>
+        <v>0.061526</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.011283</v>
+        <v>0.011344</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-25 23:12:42', 'ftime': '2019-09-25 23:12:42', 'context': '[中国 深圳市]离开深圳处理中心,发往阿拉木图', 'location': None}, {'time': '2019-09-25 20:25:42', 'ftime': '2019-09-25 20:25:42', 'context': '[中国 深圳市]到达深圳处理中心', 'location': None}, {'time': '2019-09-24 20:25:33', 'ftime': '2019-09-24 20:25:33', 'context': '[广州市]已离开广东省邮政速递物流国际业务营业部梅花园揽投站，发往深圳国际转运中心', 'location': None}, {'time': '2019-09-24 17:45:00', 'ftime': '2019-09-24 17:45:00', 'context': '[广州市]广东省邮政速递物流国际业务营业部梅花园揽投站已收件（彭明）', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 10:28:21', 'context': '查无结果', 'ftime': '2019-09-16 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.07058</v>
+        <v>0.06705800000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010584</v>
+        <v>0.010444</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (10).xlsx
+++ b/data_excel/接口测试用例_ (10).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-08-19 19:09:00', 'ftime': '2019-08-19 19:09:00', 'context': '【呼和浩特转运中心】 已发出 下一站 【北京转运中心】', 'location': ''}, {'time': '2019-08-19 18:44:00', 'ftime': '2019-08-19 18:44:00', 'context': '【呼和浩特转运中心】 已打包', 'location': ''}, {'time': '2019-08-19 18:27:00', 'ftime': '2019-08-19 18:27:00', 'context': '【呼和浩特转运中心】 已收入', 'location': ''}, {'time': '2019-08-19 17:36:00', 'ftime': '2019-08-19 17:36:00', 'context': '【内蒙古呼和浩特市如意公司】 已收件', 'location': ''}, {'time': '2019-08-19 15:29:00', 'ftime': '2019-08-19 15:29:00', 'context': '【中国】清关完毕，进入内地派送', 'location': ''}, {'time': '2019-08-19 11:14:00', 'ftime': '2019-08-19 11:14:00', 'context': '【中国】货物进入清关中', 'location': ''}, {'time': '2019-08-19 08:14:00', 'ftime': '2019-08-19 08:14:00', 'context': '【中国】货物到达海关，等待清关', 'location': ''}, {'time': '2019-08-16 00:38:00', 'ftime': '2019-08-16 00:38:00', 'context': '【中国】货物到达中国大陆', 'location': ''}, {'time': '2019-08-14 11:12:00', 'ftime': '2019-08-14 11:12:00', 'context': '【飞行中】货物离开加拿大', 'location': ''}, {'time': '2019-08-12 07:11:00', 'ftime': '2019-08-12 07:11:00', 'context': '【加拿大】货物送达多伦多机场，等待起飞', 'location': ''}, {'time': '2019-08-11 11:20:00', 'ftime': '2019-08-11 11:20:00', 'context': '【加拿大】货物到达多伦多仓库', 'location': ''}, {'time': '2019-08-10 22:23:00', 'ftime': '2019-08-10 22:23:00', 'context': '疯狂快递门店已揽收', 'location': ''}, {'time': '2019-08-08 21:59:00', 'ftime': '2019-08-08 21:59:00', 'context': '货单上传', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-29 21:46:00', 'ftime': '2019-08-29 21:46:00', 'context': '货物已由本人签收，感谢您选择京东物流！', 'location': ''}, {'time': '2019-08-29 09:51:25', 'ftime': '2019-08-29 09:51:25', 'context': '配送员开始配送，请您准备收货，配送员，贺志跃，手机号，17097230879', 'location': ''}, {'time': '2019-08-29 09:28:06', 'ftime': '2019-08-29 09:28:06', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-08-28 08:24:35', 'ftime': '2019-08-28 08:24:35', 'context': '货物已完成分拣，离开【驻马店分拨中心】', 'location': ''}, {'time': '2019-08-28 06:49:00', 'ftime': '2019-08-28 06:49:00', 'context': '货物已到达【驻马店分拨中心】', 'location': ''}, {'time': '2019-08-27 22:53:33', 'ftime': '2019-08-27 22:53:33', 'context': '货物已完成分拣，离开【武汉外单分拣中心】', 'location': ''}, {'time': '2019-08-26 21:41:30', 'ftime': '2019-08-26 21:41:30', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': ''}, {'time': '2019-08-26 21:17:32', 'ftime': '2019-08-26 21:17:32', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-08-26 21:14:07', 'ftime': '2019-08-26 21:14:07', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-08-26 18:46:06', 'ftime': '2019-08-26 18:46:06', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-08-26 18:46:06', 'ftime': '2019-08-26 18:46:06', 'context': '配送员丁晓光已经揽收完成', 'location': ''}, {'time': '2019-08-26 15:45:33', 'ftime': '2019-08-26 15:45:33', 'context': '配送员丁晓光操作再取，再取原因为：客户更改揽收时间,新的预约时间为08月26日20:00-21:00', 'location': ''}, {'time': '2019-08-26 15:44:24', 'ftime': '2019-08-26 15:44:24', 'context': '揽收任务已分配给丁晓光,配送员电话17380544255', 'location': ''}, {'time': '2019-08-26 15:25:49', 'ftime': '2019-08-26 15:25:49', 'context': '揽收任务已经转派送丁晓光,等待配送员丁晓光接收任务', 'location': ''}, {'time': '2019-08-26 15:22:07', 'ftime': '2019-08-26 15:22:07', 'context': '揽收任务已分配给丁晓光,配送员电话17380544255', 'location': ''}, {'time': '2019-08-26 14:59:51', 'ftime': '2019-08-26 14:59:51', 'context': '揽收任务已分配给戚彦,配送员电话18280120717', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.075667</v>
+        <v>0.07649400000000001</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009645000000000001</v>
+        <v>0.0181</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-17 10:28:20', 'context': '查无结果', 'ftime': '2019-09-17 10:28:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 15:13:47', 'ftime': '2019-09-29 15:13:47', 'context': '[大连市]到大连市【大连转运中心】', 'location': '大连市'}, {'time': '2019-09-29 06:16:21', 'ftime': '2019-09-29 06:16:21', 'context': '[沈阳市]沈阳市【沈阳转运中心】，正发往【大连转运中心】', 'location': '沈阳市'}, {'time': '2019-09-29 06:14:34', 'ftime': '2019-09-29 06:14:34', 'context': '[沈阳市]到沈阳市【沈阳转运中心】', 'location': '沈阳市'}, {'time': '2019-09-27 18:00:01', 'ftime': '2019-09-27 18:00:01', 'context': '[临沂市]临沂市【临沂转运中心】，正发往【沈阳转运中心】', 'location': '临沂市'}, {'time': '2019-09-27 17:56:31', 'ftime': '2019-09-27 17:56:31', 'context': '[临沂市]到临沂市【临沂转运中心】', 'location': '临沂市'}, {'time': '2019-09-27 11:50:23', 'ftime': '2019-09-27 11:50:23', 'context': '[临沂市]临沂市【临沂兰山十三部】，【唐宽皝/18754941733】已揽收', 'location': '临沂市'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.06421200000000001</v>
+        <v>0.068633</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009835999999999999</v>
+        <v>0.009639</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:28:20', 'context': '查无结果', 'ftime': '2019-09-24 10:28:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:29:00', 'ftime': '2019-07-30 16:29:00', 'context': '已签收，签收人类型：代收点签收', 'location': None}, {'time': '2019-07-30 16:29:00', 'ftime': '2019-07-30 16:29:00', 'context': '派送中，派件员：张志国，电话：18324665588', 'location': None}, {'time': '2019-07-30 14:45:00', 'ftime': '2019-07-30 14:45:00', 'context': '包裹已存放至铁力镇代理点18324665588有疑问请拨打电话18324665588', 'location': None}, {'time': '2019-07-30 14:19:00', 'ftime': '2019-07-30 14:19:00', 'context': '派送中，派件员：张志国，电话：18324665588', 'location': None}, {'time': '2019-07-30 12:21:00', 'ftime': '2019-07-30 12:21:00', 'context': '货物已到达伊春铁力市营业部', 'location': None}, {'time': '2019-07-30 06:20:00', 'ftime': '2019-07-30 06:20:00', 'context': '运输中，离开【哈尔滨集配站】，下一站【伊春铁力市营业部】', 'location': None}, {'time': '2019-07-30 04:12:00', 'ftime': '2019-07-30 04:12:00', 'context': '货物已到达哈尔滨集配站', 'location': None}, {'time': '2019-07-30 00:23:00', 'ftime': '2019-07-30 00:23:00', 'context': '运输中，离开【长春转运场】，下一站【哈尔滨集配站】', 'location': None}, {'time': '2019-07-29 19:08:00', 'ftime': '2019-07-29 19:08:00', 'context': '货物已到达长春转运场', 'location': None}, {'time': '2019-07-29 18:31:00', 'ftime': '2019-07-29 18:31:00', 'context': '运输中，离开【长春二道区公平西路营业部】，下一站【长春转运场】', 'location': None}, {'time': '2019-07-29 16:35:00', 'ftime': '2019-07-29 16:35:00', 'context': '您的订单已被收件员揽收,【长春二道区公平西路营业部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.063345</v>
+        <v>0.068268</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.01075</v>
+        <v>0.009292999999999999</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:28:21', 'context': '查无结果', 'ftime': '2019-09-25 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 13:34:56', 'ftime': '2019-09-29 13:34:56', 'context': '已签收,签收人是（本人签收）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员谢均勇(15813817618,0755-66820999)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-29 10:19:04', 'ftime': '2019-09-29 10:19:04', 'context': '广东宝安燕川营业厅-谢均勇(15813817618,0755-66820999)-派件中', 'location': ''}, {'time': '2019-09-29 09:34:04', 'ftime': '2019-09-29 09:34:04', 'context': '已到达-广东宝安燕川营业厅', 'location': ''}, {'time': '2019-09-29 08:08:35', 'ftime': '2019-09-29 08:08:35', 'context': '已到达-广东宝安燕川营业厅', 'location': ''}, {'time': '2019-09-29 06:36:45', 'ftime': '2019-09-29 06:36:45', 'context': '广东深圳福田转运中心-已发往-广东宝安燕川营业厅', 'location': ''}, {'time': '2019-09-29 06:20:11', 'ftime': '2019-09-29 06:20:11', 'context': '已到达-广东深圳福田转运中心', 'location': ''}, {'time': '2019-09-29 03:53:06', 'ftime': '2019-09-29 03:53:06', 'context': '广东深圳转运中心-已发往-广东深圳福田转运中心', 'location': ''}, {'time': '2019-09-29 03:53:06', 'ftime': '2019-09-29 03:53:06', 'context': '广东深圳转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 03:36:39', 'ftime': '2019-09-29 03:36:39', 'context': '已到达-广东深圳转运中心', 'location': ''}, {'time': '2019-09-29 03:33:25', 'ftime': '2019-09-29 03:33:25', 'context': '已到达-广东深圳转运中心', 'location': ''}, {'time': '2019-09-28 01:27:07', 'ftime': '2019-09-28 01:27:07', 'context': '江苏淮安转运中心-已发往-广东深圳转运中心', 'location': ''}, {'time': '2019-09-28 01:27:07', 'ftime': '2019-09-28 01:27:07', 'context': '江苏淮安转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 01:19:15', 'ftime': '2019-09-28 01:19:15', 'context': '已到达-江苏淮安转运中心', 'location': ''}, {'time': '2019-09-27 19:12:20', 'ftime': '2019-09-27 19:12:20', 'context': '江苏淮安公司-已发往-江苏淮安转运中心', 'location': ''}, {'time': '2019-09-27 19:05:04', 'ftime': '2019-09-27 19:05:04', 'context': '江苏淮安公司-张欢(15605235229,0517-89905449)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.06404700000000001</v>
+        <v>0.073599</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.01033</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:12:06', 'ftime': '2019-09-29 09:12:06', 'context': '广东佛山里水甘蕉分部-王波带派(18029351967)-派件中', 'location': ''}, {'time': '2019-09-29 08:27:06', 'ftime': '2019-09-29 08:27:06', 'context': '已到达-广东佛山里水甘蕉分部', 'location': ''}, {'time': '2019-09-29 06:17:37', 'ftime': '2019-09-29 06:17:37', 'context': '广东佛山转运中心-已发往-广东佛山里水甘蕉分部', 'location': ''}, {'time': '2019-09-29 06:05:52', 'ftime': '2019-09-29 06:05:52', 'context': '已到达-广东佛山转运中心', 'location': ''}, {'time': '2019-09-29 00:38:46', 'ftime': '2019-09-29 00:38:46', 'context': '广东广州天骄分拨中心-已装袋发往-广东佛山转运中心', 'location': ''}, {'time': '2019-09-29 00:38:46', 'ftime': '2019-09-29 00:38:46', 'context': '广东广州天骄分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 00:25:28', 'ftime': '2019-09-29 00:25:28', 'context': '已到达-广东广州天骄分拨中心', 'location': ''}, {'time': '2019-09-28 23:22:12', 'ftime': '2019-09-28 23:22:12', 'context': '广东广州火车站点-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 23:22:12', 'ftime': '2019-09-28 23:22:12', 'context': '广东广州火车站点-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 23:03:13', 'ftime': '2019-09-28 23:03:13', 'context': '广东广州火车站点-直营揽收(18138701110,020-37183133)-已收件', 'location': ''}, {'time': '2019-09-28 21:02:06', 'ftime': '2019-09-28 21:02:06', 'context': '广东广州火车站点-张立涛(13250578659,020-37183133)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 14:27:36', 'ftime': '2019-09-29 14:27:36', 'context': '【江门市】 【恩平】 的侯国劲（13672833850） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 15:17:54', 'ftime': '2019-09-28 15:17:54', 'context': '【江门市】 【恩平】 的 莫多仪 已进行【问题件】上报，原因：节假日快件,假后派送', 'location': ''}, {'time': '2019-09-28 15:05:39', 'ftime': '2019-09-28 15:05:39', 'context': '【江门市】 【恩平】 的 莫多仪 已进行【问题件】上报，原因：节假日快件,假后派送', 'location': ''}, {'time': '2019-09-28 08:42:59', 'ftime': '2019-09-28 08:42:59', 'context': '【江门市】 快件离开 【恩平】 已发往 【恩平市沙湖镇】', 'location': ''}, {'time': '2019-09-28 08:41:37', 'ftime': '2019-09-28 08:41:37', 'context': '【江门市】 快件已经到达 【恩平】', 'location': ''}, {'time': '2019-09-28 00:39:06', 'ftime': '2019-09-28 00:39:06', 'context': '【中山市】 快件离开 【中山中心】 已发往 【恩平】', 'location': ''}, {'time': '2019-09-27 22:29:27', 'ftime': '2019-09-27 22:29:27', 'context': '【中山市】 快件已经到达 【中山中心】', 'location': ''}, {'time': '2019-09-27 12:17:55', 'ftime': '2019-09-27 12:17:55', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【中山中心】', 'location': ''}, {'time': '2019-09-27 12:14:25', 'ftime': '2019-09-27 12:14:25', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': ''}, {'time': '2019-09-25 19:53:04', 'ftime': '2019-09-25 19:53:04', 'context': '【蚌埠市】 快件离开 【蚌埠中转部】 已发往 【中山中心】', 'location': ''}, {'time': '2019-09-25 19:52:59', 'ftime': '2019-09-25 19:52:59', 'context': '【蚌埠市】 快件已经到达 【蚌埠中转部】', 'location': ''}, {'time': '2019-09-25 18:16:30', 'ftime': '2019-09-25 18:16:30', 'context': '【蚌埠市】 快件离开 【蚌埠蚌山七部】 已发往 【蚌埠中转部】', 'location': ''}, {'time': '2019-09-25 18:02:55', 'ftime': '2019-09-25 18:02:55', 'context': '【蚌埠市】 【蚌埠蚌山七部】（0552-4672266、0552-2332517） 的 马瑞瑞（15155257297） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07065299999999999</v>
+        <v>0.069276</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.034879</v>
+        <v>0.009920999999999999</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:28:21', 'context': '查无结果', 'ftime': '2019-09-06 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:50', 'context': '查无结果', 'ftime': '2019-09-29 16:10:50'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.06962</v>
+        <v>0.066361</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009521</v>
+        <v>0.009946999999999999</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 10:28:21', 'context': '查无结果', 'ftime': '2019-09-23 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 13:23:55', 'ftime': '2019-09-29 13:23:55', 'context': '[广东深圳公司福田区深福保分部]进行派件扫描；派送业务员：沈鹏；联系电话：18926407327', 'location': '广东深圳公司福田区深福保分部'}, {'time': '2019-09-29 12:50:11', 'ftime': '2019-09-29 12:50:11', 'context': '[广东深圳公司福田区车公庙分部]进行快件扫描，发往：广东深圳公司福田区深福保分部', 'location': '广东深圳公司福田区车公庙分部'}, {'time': '2019-09-29 08:06:27', 'ftime': '2019-09-29 08:06:27', 'context': '[广东深圳公司]进行快件扫描，发往：广东深圳公司福田区车公庙分部', 'location': '广东深圳公司'}, {'time': '2019-09-29 08:02:29', 'ftime': '2019-09-29 08:02:29', 'context': '[广东深圳公司]进行揽件扫描', 'location': '广东深圳公司'}, {'time': '2019-09-28 15:34:11', 'ftime': '2019-09-28 15:34:11', 'context': '[广东深圳公司耐拓能源科技-KH分部]进行揽件扫描', 'location': '广东深圳公司耐拓能源科技-KH分部'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.06790499999999999</v>
+        <v>0.069589</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009431</v>
+        <v>0.010834</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:28:21', 'context': '查无结果', 'ftime': '2019-09-06 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-10 12:44:02', 'ftime': '2019-09-10 12:44:02', 'context': '【哈尔滨市】 快件已在 【哈尔滨立汇美罗湾分部】 签收, 签收人: 本人, 如有疑问请电联:18249032524 / 0451-82911002, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-10 08:22:51', 'ftime': '2019-09-10 08:22:51', 'context': '【哈尔滨市】 【哈尔滨立汇美罗湾分部】 的洪雨（18249032524） 正在第2次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-10 08:08:44', 'ftime': '2019-09-10 08:08:44', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨立汇美罗湾分部】', 'location': ''}, {'time': '2019-09-09 16:48:01', 'ftime': '2019-09-09 16:48:01', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【哈尔滨立汇美罗湾分部】', 'location': ''}, {'time': '2019-09-09 16:14:43', 'ftime': '2019-09-09 16:14:43', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-07 23:20:02', 'ftime': '2019-09-07 23:20:02', 'context': '【西安市】 快件离开 【西安中转】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-07 23:19:38', 'ftime': '2019-09-07 23:19:38', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': ''}, {'time': '2019-09-07 20:31:30', 'ftime': '2019-09-07 20:31:30', 'context': '【西安市】 快件离开 【西安玉祥门外】 已发往 【西安】', 'location': ''}, {'time': '2019-09-07 19:11:15', 'ftime': '2019-09-07 19:11:15', 'context': '【西安市】 【西安玉祥门外】（029-81337401） 的 石王建（15829375886） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.061526</v>
+        <v>0.07360899999999999</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.011344</v>
+        <v>0.008878</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 10:28:21', 'context': '查无结果', 'ftime': '2019-09-16 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 14:42:54', 'ftime': '2019-09-29 14:42:54', 'context': '【邮政上海市徐汇区徐汇】已收件', 'location': ''}, {'time': '2019-09-29 14:35:30', 'ftime': '2019-09-29 14:35:30', 'context': '[上海市]【徐汇邮政支局】已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06705800000000001</v>
+        <v>0.07391399999999999</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010444</v>
+        <v>0.008833000000000001</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (10).xlsx
+++ b/data_excel/接口测试用例_ (10).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-29 21:46:00', 'ftime': '2019-08-29 21:46:00', 'context': '货物已由本人签收，感谢您选择京东物流！', 'location': ''}, {'time': '2019-08-29 09:51:25', 'ftime': '2019-08-29 09:51:25', 'context': '配送员开始配送，请您准备收货，配送员，贺志跃，手机号，17097230879', 'location': ''}, {'time': '2019-08-29 09:28:06', 'ftime': '2019-08-29 09:28:06', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-08-28 08:24:35', 'ftime': '2019-08-28 08:24:35', 'context': '货物已完成分拣，离开【驻马店分拨中心】', 'location': ''}, {'time': '2019-08-28 06:49:00', 'ftime': '2019-08-28 06:49:00', 'context': '货物已到达【驻马店分拨中心】', 'location': ''}, {'time': '2019-08-27 22:53:33', 'ftime': '2019-08-27 22:53:33', 'context': '货物已完成分拣，离开【武汉外单分拣中心】', 'location': ''}, {'time': '2019-08-26 21:41:30', 'ftime': '2019-08-26 21:41:30', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': ''}, {'time': '2019-08-26 21:17:32', 'ftime': '2019-08-26 21:17:32', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-08-26 21:14:07', 'ftime': '2019-08-26 21:14:07', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-08-26 18:46:06', 'ftime': '2019-08-26 18:46:06', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-08-26 18:46:06', 'ftime': '2019-08-26 18:46:06', 'context': '配送员丁晓光已经揽收完成', 'location': ''}, {'time': '2019-08-26 15:45:33', 'ftime': '2019-08-26 15:45:33', 'context': '配送员丁晓光操作再取，再取原因为：客户更改揽收时间,新的预约时间为08月26日20:00-21:00', 'location': ''}, {'time': '2019-08-26 15:44:24', 'ftime': '2019-08-26 15:44:24', 'context': '揽收任务已分配给丁晓光,配送员电话17380544255', 'location': ''}, {'time': '2019-08-26 15:25:49', 'ftime': '2019-08-26 15:25:49', 'context': '揽收任务已经转派送丁晓光,等待配送员丁晓光接收任务', 'location': ''}, {'time': '2019-08-26 15:22:07', 'ftime': '2019-08-26 15:22:07', 'context': '揽收任务已分配给丁晓光,配送员电话17380544255', 'location': ''}, {'time': '2019-08-26 14:59:51', 'ftime': '2019-08-26 14:59:51', 'context': '揽收任务已分配给戚彦,配送员电话18280120717', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.07649400000000001</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:34:44', 'context': '查无结果', 'ftime': '2019-09-10 16:34:44'}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.065702</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.0181</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 15:13:47', 'ftime': '2019-09-29 15:13:47', 'context': '[大连市]到大连市【大连转运中心】', 'location': '大连市'}, {'time': '2019-09-29 06:16:21', 'ftime': '2019-09-29 06:16:21', 'context': '[沈阳市]沈阳市【沈阳转运中心】，正发往【大连转运中心】', 'location': '沈阳市'}, {'time': '2019-09-29 06:14:34', 'ftime': '2019-09-29 06:14:34', 'context': '[沈阳市]到沈阳市【沈阳转运中心】', 'location': '沈阳市'}, {'time': '2019-09-27 18:00:01', 'ftime': '2019-09-27 18:00:01', 'context': '[临沂市]临沂市【临沂转运中心】，正发往【沈阳转运中心】', 'location': '临沂市'}, {'time': '2019-09-27 17:56:31', 'ftime': '2019-09-27 17:56:31', 'context': '[临沂市]到临沂市【临沂转运中心】', 'location': '临沂市'}, {'time': '2019-09-27 11:50:23', 'ftime': '2019-09-27 11:50:23', 'context': '[临沂市]临沂市【临沂兰山十三部】，【唐宽皝/18754941733】已揽收', 'location': '临沂市'}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.068633</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 10:39:40', 'ftime': '2019-10-08 10:39:40', 'context': '快件 已到达 重庆茶园二部', 'location': '重庆市-重庆城区-重庆茶园二部'}, {'time': '2019-10-08 06:01:28', 'ftime': '2019-10-08 06:01:28', 'context': '快件 已从 重庆分拨中心 发出', 'location': '重庆市-重庆城区-重庆分拨中心'}, {'time': '2019-10-08 05:36:34', 'ftime': '2019-10-08 05:36:34', 'context': '快件 已到达 重庆分拨中心', 'location': '重庆市-重庆城区-重庆分拨中心'}, {'time': '2019-10-07 03:55:39', 'ftime': '2019-10-07 03:55:39', 'context': '快件 已从 郑州分拨中心 发出', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-10-06 17:09:40', 'ftime': '2019-10-06 17:09:40', 'context': '快件 已到达 郑州分拨中心', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-10-06 15:52:06', 'ftime': '2019-10-06 15:52:06', 'context': '东区双汇 的 业务员 已收件', 'location': '河南省-郑州市-东区双汇'}, {'time': '2019-10-06 15:51:42', 'ftime': '2019-10-06 15:51:42', 'context': '快件 已从 东区双汇 发出', 'location': '河南省-郑州市-东区双汇'}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.07396</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.009639</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:29:00', 'ftime': '2019-07-30 16:29:00', 'context': '已签收，签收人类型：代收点签收', 'location': None}, {'time': '2019-07-30 16:29:00', 'ftime': '2019-07-30 16:29:00', 'context': '派送中，派件员：张志国，电话：18324665588', 'location': None}, {'time': '2019-07-30 14:45:00', 'ftime': '2019-07-30 14:45:00', 'context': '包裹已存放至铁力镇代理点18324665588有疑问请拨打电话18324665588', 'location': None}, {'time': '2019-07-30 14:19:00', 'ftime': '2019-07-30 14:19:00', 'context': '派送中，派件员：张志国，电话：18324665588', 'location': None}, {'time': '2019-07-30 12:21:00', 'ftime': '2019-07-30 12:21:00', 'context': '货物已到达伊春铁力市营业部', 'location': None}, {'time': '2019-07-30 06:20:00', 'ftime': '2019-07-30 06:20:00', 'context': '运输中，离开【哈尔滨集配站】，下一站【伊春铁力市营业部】', 'location': None}, {'time': '2019-07-30 04:12:00', 'ftime': '2019-07-30 04:12:00', 'context': '货物已到达哈尔滨集配站', 'location': None}, {'time': '2019-07-30 00:23:00', 'ftime': '2019-07-30 00:23:00', 'context': '运输中，离开【长春转运场】，下一站【哈尔滨集配站】', 'location': None}, {'time': '2019-07-29 19:08:00', 'ftime': '2019-07-29 19:08:00', 'context': '货物已到达长春转运场', 'location': None}, {'time': '2019-07-29 18:31:00', 'ftime': '2019-07-29 18:31:00', 'context': '运输中，离开【长春二道区公平西路营业部】，下一站【长春转运场】', 'location': None}, {'time': '2019-07-29 16:35:00', 'ftime': '2019-07-29 16:35:00', 'context': '您的订单已被收件员揽收,【长春二道区公平西路营业部】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.068268</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 16:34:44', 'context': '查无结果', 'ftime': '2019-09-16 16:34:44'}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.06525</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009292999999999999</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 13:34:56', 'ftime': '2019-09-29 13:34:56', 'context': '已签收,签收人是（本人签收）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员谢均勇(15813817618,0755-66820999)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-29 10:19:04', 'ftime': '2019-09-29 10:19:04', 'context': '广东宝安燕川营业厅-谢均勇(15813817618,0755-66820999)-派件中', 'location': ''}, {'time': '2019-09-29 09:34:04', 'ftime': '2019-09-29 09:34:04', 'context': '已到达-广东宝安燕川营业厅', 'location': ''}, {'time': '2019-09-29 08:08:35', 'ftime': '2019-09-29 08:08:35', 'context': '已到达-广东宝安燕川营业厅', 'location': ''}, {'time': '2019-09-29 06:36:45', 'ftime': '2019-09-29 06:36:45', 'context': '广东深圳福田转运中心-已发往-广东宝安燕川营业厅', 'location': ''}, {'time': '2019-09-29 06:20:11', 'ftime': '2019-09-29 06:20:11', 'context': '已到达-广东深圳福田转运中心', 'location': ''}, {'time': '2019-09-29 03:53:06', 'ftime': '2019-09-29 03:53:06', 'context': '广东深圳转运中心-已发往-广东深圳福田转运中心', 'location': ''}, {'time': '2019-09-29 03:53:06', 'ftime': '2019-09-29 03:53:06', 'context': '广东深圳转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 03:36:39', 'ftime': '2019-09-29 03:36:39', 'context': '已到达-广东深圳转运中心', 'location': ''}, {'time': '2019-09-29 03:33:25', 'ftime': '2019-09-29 03:33:25', 'context': '已到达-广东深圳转运中心', 'location': ''}, {'time': '2019-09-28 01:27:07', 'ftime': '2019-09-28 01:27:07', 'context': '江苏淮安转运中心-已发往-广东深圳转运中心', 'location': ''}, {'time': '2019-09-28 01:27:07', 'ftime': '2019-09-28 01:27:07', 'context': '江苏淮安转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 01:19:15', 'ftime': '2019-09-28 01:19:15', 'context': '已到达-江苏淮安转运中心', 'location': ''}, {'time': '2019-09-27 19:12:20', 'ftime': '2019-09-27 19:12:20', 'context': '江苏淮安公司-已发往-江苏淮安转运中心', 'location': ''}, {'time': '2019-09-27 19:05:04', 'ftime': '2019-09-27 19:05:04', 'context': '江苏淮安公司-张欢(15605235229,0517-89905449)-已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.073599</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-02 21:08:16', 'ftime': '2019-10-02 21:08:16', 'context': '[江苏常熟分拨点]从站点发出，本次转运目的地：江苏常熟虞山工业园公司', 'location': '江苏常熟分拨点'}, {'time': '2019-10-02 21:03:16', 'ftime': '2019-10-02 21:03:16', 'context': '[江苏常熟分拨点]在分拨中心进行称重扫描', 'location': '江苏常熟分拨点'}, {'time': '2019-09-30 02:45:37', 'ftime': '2019-09-30 02:45:37', 'context': '[江苏苏州分拨中心]进行装车扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-30 00:43:50', 'ftime': '2019-09-30 00:43:50', 'context': '[江苏苏州分拨中心]在分拨中心进行称重扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-29 15:18:30', 'ftime': '2019-09-29 15:18:30', 'context': '[江苏主城区公司新常熟服务部虞山工业园分部]进行揽件扫描', 'location': '江苏主城区公司新常熟服务部虞山工业园分部'}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.075281</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.009175000000000001</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 14:27:36', 'ftime': '2019-09-29 14:27:36', 'context': '【江门市】 【恩平】 的侯国劲（13672833850） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 15:17:54', 'ftime': '2019-09-28 15:17:54', 'context': '【江门市】 【恩平】 的 莫多仪 已进行【问题件】上报，原因：节假日快件,假后派送', 'location': ''}, {'time': '2019-09-28 15:05:39', 'ftime': '2019-09-28 15:05:39', 'context': '【江门市】 【恩平】 的 莫多仪 已进行【问题件】上报，原因：节假日快件,假后派送', 'location': ''}, {'time': '2019-09-28 08:42:59', 'ftime': '2019-09-28 08:42:59', 'context': '【江门市】 快件离开 【恩平】 已发往 【恩平市沙湖镇】', 'location': ''}, {'time': '2019-09-28 08:41:37', 'ftime': '2019-09-28 08:41:37', 'context': '【江门市】 快件已经到达 【恩平】', 'location': ''}, {'time': '2019-09-28 00:39:06', 'ftime': '2019-09-28 00:39:06', 'context': '【中山市】 快件离开 【中山中心】 已发往 【恩平】', 'location': ''}, {'time': '2019-09-27 22:29:27', 'ftime': '2019-09-27 22:29:27', 'context': '【中山市】 快件已经到达 【中山中心】', 'location': ''}, {'time': '2019-09-27 12:17:55', 'ftime': '2019-09-27 12:17:55', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【中山中心】', 'location': ''}, {'time': '2019-09-27 12:14:25', 'ftime': '2019-09-27 12:14:25', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': ''}, {'time': '2019-09-25 19:53:04', 'ftime': '2019-09-25 19:53:04', 'context': '【蚌埠市】 快件离开 【蚌埠中转部】 已发往 【中山中心】', 'location': ''}, {'time': '2019-09-25 19:52:59', 'ftime': '2019-09-25 19:52:59', 'context': '【蚌埠市】 快件已经到达 【蚌埠中转部】', 'location': ''}, {'time': '2019-09-25 18:16:30', 'ftime': '2019-09-25 18:16:30', 'context': '【蚌埠市】 快件离开 【蚌埠蚌山七部】 已发往 【蚌埠中转部】', 'location': ''}, {'time': '2019-09-25 18:02:55', 'ftime': '2019-09-25 18:02:55', 'context': '【蚌埠市】 【蚌埠蚌山七部】（0552-4672266、0552-2332517） 的 马瑞瑞（15155257297） 已揽收', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.069276</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 13:26:53', 'ftime': '2019-10-08 13:26:53', 'context': '快件已本人签收', 'location': '广州越秀三部'}, {'time': '2019-10-07 19:42:02', 'ftime': '2019-10-07 19:42:02', 'context': '快件未签收，原因是【节假日客户放假，续送】', 'location': '广州越秀三部'}, {'time': '2019-10-07 12:47:04', 'ftime': '2019-10-07 12:47:04', 'context': '[广州越秀三部]的【刘炽贤】正在派件, 电话：15975847829', 'location': '广州越秀三部'}, {'time': '2019-10-07 08:53:58', 'ftime': '2019-10-07 08:53:58', 'context': '快件已到达[广州越秀三部],上一站是[广州分拨中心]', 'location': '广州越秀三部'}, {'time': '2019-10-07 05:38:40', 'ftime': '2019-10-07 05:38:40', 'context': '快件已由[广州分拨中心]发往[广州越秀三部]', 'location': '广州分拨中心'}, {'time': '2019-10-07 05:29:16', 'ftime': '2019-10-07 05:29:16', 'context': '快件已到达[广州分拨中心],上一站是[虎门分拨中心]', 'location': '广州分拨中心'}, {'time': '2019-10-07 04:23:23', 'ftime': '2019-10-07 04:23:23', 'context': '快件已由[虎门分拨中心]发往[广州分拨中心]', 'location': '虎门分拨中心'}, {'time': '2019-10-07 04:20:19', 'ftime': '2019-10-07 04:20:19', 'context': '快件已到达[虎门分拨中心],上一站是[金华分拨中心]', 'location': '虎门分拨中心'}, {'time': '2019-10-06 03:24:22', 'ftime': '2019-10-06 03:24:22', 'context': '快件已由[金华分拨中心]发往[虎门分拨中心]', 'location': '金华分拨中心'}, {'time': '2019-10-05 23:34:43', 'ftime': '2019-10-05 23:34:43', 'context': '快件已到达[金华分拨中心],上一站是[浙江义乌春晗一部]', 'location': '金华分拨中心'}, {'time': '2019-10-05 17:00:00', 'ftime': '2019-10-05 17:00:00', 'context': '[浙江义乌春晗一部]【庄迪爽】已收件', 'location': '浙江义乌春晗一部'}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.071758</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.009920999999999999</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:50', 'context': '查无结果', 'ftime': '2019-09-29 16:10:50'}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.066361</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 14:51:17', 'ftime': '2019-10-08 14:51:17', 'context': '[陕西大荔县公司]进行揽件扫描', 'location': '陕西大荔县公司'}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.070677</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.009946999999999999</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 13:23:55', 'ftime': '2019-09-29 13:23:55', 'context': '[广东深圳公司福田区深福保分部]进行派件扫描；派送业务员：沈鹏；联系电话：18926407327', 'location': '广东深圳公司福田区深福保分部'}, {'time': '2019-09-29 12:50:11', 'ftime': '2019-09-29 12:50:11', 'context': '[广东深圳公司福田区车公庙分部]进行快件扫描，发往：广东深圳公司福田区深福保分部', 'location': '广东深圳公司福田区车公庙分部'}, {'time': '2019-09-29 08:06:27', 'ftime': '2019-09-29 08:06:27', 'context': '[广东深圳公司]进行快件扫描，发往：广东深圳公司福田区车公庙分部', 'location': '广东深圳公司'}, {'time': '2019-09-29 08:02:29', 'ftime': '2019-09-29 08:02:29', 'context': '[广东深圳公司]进行揽件扫描', 'location': '广东深圳公司'}, {'time': '2019-09-28 15:34:11', 'ftime': '2019-09-28 15:34:11', 'context': '[广东深圳公司耐拓能源科技-KH分部]进行揽件扫描', 'location': '广东深圳公司耐拓能源科技-KH分部'}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.069589</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 12:55:20', 'ftime': '2019-10-05 12:55:20', 'context': '【临沂市】 快件已在 【兰山马厂镇三部】 签收, 签收人: 菜鸟驿站, 如有疑问请电联:13508991520 / 15376048961, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-10-05 09:08:29', 'ftime': '2019-10-05 09:08:29', 'context': '【临沂市】 【兰山马厂镇三部】 的zto（13508991520） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-10-05 09:08:24', 'ftime': '2019-10-05 09:08:24', 'context': '【临沂市】 快件已经到达 【兰山马厂镇三部】', 'location': None}, {'time': '2019-10-04 22:59:45', 'ftime': '2019-10-04 22:59:45', 'context': '【临沂市】 快件离开 【临沂玩具城】 已发往 【兰山马厂镇三部】', 'location': None}, {'time': '2019-10-04 22:52:31', 'ftime': '2019-10-04 22:52:31', 'context': '【临沂市】 快件已经到达 【临沂玩具城】', 'location': None}, {'time': '2019-10-04 19:41:26', 'ftime': '2019-10-04 19:41:26', 'context': '【临沂市】 快件离开 【临沂中转部】 已发往 【临沂玩具城】', 'location': None}, {'time': '2019-10-04 18:09:59', 'ftime': '2019-10-04 18:09:59', 'context': '【临沂市】 快件已经到达 【临沂中转部】', 'location': None}, {'time': '2019-10-04 09:21:01', 'ftime': '2019-10-04 09:21:01', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【临沂中转部】', 'location': None}, {'time': '2019-10-01 02:25:30', 'ftime': '2019-10-01 02:25:30', 'context': '【成都市】 快件离开 【成都中转】 已发往 【临沂中转部】', 'location': None}, {'time': '2019-10-01 01:20:34', 'ftime': '2019-10-01 01:20:34', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': None}, {'time': '2019-09-30 17:56:53', 'ftime': '2019-09-30 17:56:53', 'context': '【宜宾市】 快件离开 【宜宾县】 已发往 【成都中转】', 'location': None}, {'time': '2019-09-30 17:52:02', 'ftime': '2019-09-30 17:52:02', 'context': '【宜宾市】 【宜宾县】（0831-6880265） 的 新村（15682223332） 已揽收', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.071701</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.010834</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-10 12:44:02', 'ftime': '2019-09-10 12:44:02', 'context': '【哈尔滨市】 快件已在 【哈尔滨立汇美罗湾分部】 签收, 签收人: 本人, 如有疑问请电联:18249032524 / 0451-82911002, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-10 08:22:51', 'ftime': '2019-09-10 08:22:51', 'context': '【哈尔滨市】 【哈尔滨立汇美罗湾分部】 的洪雨（18249032524） 正在第2次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-10 08:08:44', 'ftime': '2019-09-10 08:08:44', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨立汇美罗湾分部】', 'location': ''}, {'time': '2019-09-09 16:48:01', 'ftime': '2019-09-09 16:48:01', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【哈尔滨立汇美罗湾分部】', 'location': ''}, {'time': '2019-09-09 16:14:43', 'ftime': '2019-09-09 16:14:43', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-07 23:20:02', 'ftime': '2019-09-07 23:20:02', 'context': '【西安市】 快件离开 【西安中转】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-07 23:19:38', 'ftime': '2019-09-07 23:19:38', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': ''}, {'time': '2019-09-07 20:31:30', 'ftime': '2019-09-07 20:31:30', 'context': '【西安市】 快件离开 【西安玉祥门外】 已发往 【西安】', 'location': ''}, {'time': '2019-09-07 19:11:15', 'ftime': '2019-09-07 19:11:15', 'context': '【西安市】 【西安玉祥门外】（029-81337401） 的 石王建（15829375886） 已揽收', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.07360899999999999</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:34:44', 'context': '查无结果', 'ftime': '2019-09-09 16:34:44'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.06370000000000001</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.008878</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 14:42:54', 'ftime': '2019-09-29 14:42:54', 'context': '【邮政上海市徐汇区徐汇】已收件', 'location': ''}, {'time': '2019-09-29 14:35:30', 'ftime': '2019-09-29 14:35:30', 'context': '[上海市]【徐汇邮政支局】已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.07391399999999999</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 09:07:04', 'ftime': '2019-10-08 09:07:04', 'context': '快件已由兰州理工大学本部17号楼菜鸟驿站代收，请及时取件，如有疑问请联系15293180820', 'location': ''}, {'time': '2019-10-08 07:45:24', 'ftime': '2019-10-08 07:45:24', 'context': '【甘肃省兰州市七里河区上西元公司】 派件中 派件人: 王双平 电话 17739989327 如有疑问，请联系：0931-2660212', 'location': ''}, {'time': '2019-10-08 07:43:18', 'ftime': '2019-10-08 07:43:18', 'context': '【甘肃省兰州市七里河区上西元公司】 已收入', 'location': ''}, {'time': '2019-10-07 23:25:48', 'ftime': '2019-10-07 23:25:48', 'context': '【甘肃省兰州市】 已发出 下一站 【甘肃省兰州市七里河区上西元】', 'location': ''}, {'time': '2019-10-07 21:37:15', 'ftime': '2019-10-07 21:37:15', 'context': '【甘肃省兰州市公司】 已收入', 'location': ''}, {'time': '2019-10-05 00:18:32', 'ftime': '2019-10-05 00:18:32', 'context': '【义乌转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-04 22:45:41', 'ftime': '2019-10-04 22:45:41', 'context': '【浙江省金华市义乌市北苑丹溪】 已发出 下一站 【义乌转运中心】', 'location': ''}, {'time': '2019-10-04 22:35:59', 'ftime': '2019-10-04 22:35:59', 'context': '【浙江省金华市义乌市北苑丹溪公司】 已打包', 'location': ''}, {'time': '2019-10-04 21:05:02', 'ftime': '2019-10-04 21:05:02', 'context': '【浙江省金华市义乌市北苑丹溪公司】 已收件 取件人: 陈伟斌 (15967988425)', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.071546</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.008833000000000001</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (10).xlsx
+++ b/data_excel/接口测试用例_ (10).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:34:44', 'context': '查无结果', 'ftime': '2019-09-10 16:34:44'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-01 09:56:33', 'ftime': '2019-10-01 09:56:33', 'context': '[广东主城公司番禺桥南服务部桥南街一分部]到达目的地网点，快件很快进行派送', 'location': '广东主城公司番禺桥南服务部桥南街一分部'}, {'time': '2019-10-01 06:09:06', 'ftime': '2019-10-01 06:09:06', 'context': '[广东主城区公司广州番禺桥南服务部]进行快件扫描，发往：广东主城公司番禺桥南服务部桥南街一分部', 'location': '广东主城区公司广州番禺桥南服务部'}, {'time': '2019-09-30 22:14:37', 'ftime': '2019-09-30 22:14:37', 'context': '[广东广州分拨中心]进行装车扫描，发往：广东佛山分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-30 22:11:24', 'ftime': '2019-09-30 22:11:24', 'context': '[广东广州分拨中心]在分拨中心进行卸车扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-28 23:25:54', 'ftime': '2019-09-28 23:25:54', 'context': '[吉林长春分拨中心]进行中转集包扫描，发往：广东佛山分拨中心', 'location': '吉林长春分拨中心'}, {'time': '2019-09-28 11:20:04', 'ftime': '2019-09-28 11:20:04', 'context': '[吉林省吉林公司恒山东路分部]进行发出扫描，发往：吉林长春分拨中心', 'location': '吉林省吉林公司恒山东路分部'}, {'time': '2019-09-28 05:29:22', 'ftime': '2019-09-28 05:29:22', 'context': '[吉林省吉林公司]进行快件扫描，发往：吉林省吉林公司恒山东路分部', 'location': '吉林省吉林公司'}, {'time': '2019-09-27 05:38:13', 'ftime': '2019-09-27 05:38:13', 'context': '[吉林长春分拨中心]从站点发出，本次转运目的地：吉林省吉林公司', 'location': '吉林长春分拨中心'}, {'time': '2019-09-27 05:34:42', 'ftime': '2019-09-27 05:34:42', 'context': '[吉林长春分拨中心]在分拨中心进行卸车扫描', 'location': '吉林长春分拨中心'}, {'time': '2019-09-27 00:11:47', 'ftime': '2019-09-27 00:11:47', 'context': '[辽宁沈阳分拨中心]进行装车扫描，发往：吉林长春分拨中心', 'location': '辽宁沈阳分拨中心'}, {'time': '2019-09-27 00:08:54', 'ftime': '2019-09-27 00:08:54', 'context': '[辽宁沈阳分拨中心]在分拨中心进行卸车扫描', 'location': '辽宁沈阳分拨中心'}, {'time': '2019-09-25 04:19:32', 'ftime': '2019-09-25 04:19:32', 'context': '[广东佛山分拨中心]进行装车扫描，发往：辽宁沈阳分拨中心', 'location': '广东佛山分拨中心'}, {'time': '2019-09-25 04:07:07', 'ftime': '2019-09-25 04:07:07', 'context': '[广东佛山分拨中心]进行中转集包扫描，发往：吉林省吉林公司', 'location': '广东佛山分拨中心'}, {'time': '2019-09-25 03:59:43', 'ftime': '2019-09-25 03:59:43', 'context': '[广东佛山分拨中心]在分拨中心进行称重扫描', 'location': '广东佛山分拨中心'}, {'time': '2019-09-24 18:21:05', 'ftime': '2019-09-24 18:21:05', 'context': '[广东主城区公司广州番禺桥南服务部]进行揽件扫描', 'location': '广东主城区公司广州番禺桥南服务部'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.065702</v>
+        <v>0.07417</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 10:39:40', 'ftime': '2019-10-08 10:39:40', 'context': '快件 已到达 重庆茶园二部', 'location': '重庆市-重庆城区-重庆茶园二部'}, {'time': '2019-10-08 06:01:28', 'ftime': '2019-10-08 06:01:28', 'context': '快件 已从 重庆分拨中心 发出', 'location': '重庆市-重庆城区-重庆分拨中心'}, {'time': '2019-10-08 05:36:34', 'ftime': '2019-10-08 05:36:34', 'context': '快件 已到达 重庆分拨中心', 'location': '重庆市-重庆城区-重庆分拨中心'}, {'time': '2019-10-07 03:55:39', 'ftime': '2019-10-07 03:55:39', 'context': '快件 已从 郑州分拨中心 发出', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-10-06 17:09:40', 'ftime': '2019-10-06 17:09:40', 'context': '快件 已到达 郑州分拨中心', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-10-06 15:52:06', 'ftime': '2019-10-06 15:52:06', 'context': '东区双汇 的 业务员 已收件', 'location': '河南省-郑州市-东区双汇'}, {'time': '2019-10-06 15:51:42', 'ftime': '2019-10-06 15:51:42', 'context': '快件 已从 东区双汇 发出', 'location': '河南省-郑州市-东区双汇'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-09 00:00:00', 'ftime': '2019-09-09 00:00:00', 'context': '海关查验中', 'location': ''}, {'time': '2019-09-08 00:00:00', 'ftime': '2019-09-08 00:00:00', 'context': '快件已到达【中国海关】 等待海关查验', 'location': ''}, {'time': '2019-09-07 00:00:00', 'ftime': '2019-09-07 00:00:00', 'context': '快件已发往【中国海关】', 'location': ''}, {'time': '2019-09-06 00:00:00', 'ftime': '2019-09-06 00:00:00', 'context': '【新西兰-奥克兰】 取件成功', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.07396</v>
+        <v>0.07514899999999999</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 16:34:44', 'context': '查无结果', 'ftime': '2019-09-16 16:34:44'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 17:26:10', 'ftime': '2019-10-07 17:26:10', 'context': '货物已由本人签收，感谢您选择京东物流！', 'location': ''}, {'time': '2019-10-07 16:03:41', 'ftime': '2019-10-07 16:03:41', 'context': '配送员开始配送，请您准备收货，配送员，刘伟莉，手机号，15290827736', 'location': ''}, {'time': '2019-10-07 15:32:36', 'ftime': '2019-10-07 15:32:36', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-10-07 15:32:36', 'ftime': '2019-10-07 15:32:36', 'context': '货物已到达【郑州新郑营业部】', 'location': ''}, {'time': '2019-10-07 13:40:57', 'ftime': '2019-10-07 13:40:57', 'context': '货物已完成分拣，离开【郑州分拨中心】', 'location': ''}, {'time': '2019-10-07 10:46:42', 'ftime': '2019-10-07 10:46:42', 'context': '货物已到达【郑州分拨中心】', 'location': ''}, {'time': '2019-10-06 18:41:53', 'ftime': '2019-10-06 18:41:53', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': ''}, {'time': '2019-10-06 12:36:23', 'ftime': '2019-10-06 12:36:23', 'context': '受国庆假期影响，您的快递可能会延迟配送，请您耐心等待;', 'location': ''}, {'time': '2019-10-06 12:36:19', 'ftime': '2019-10-06 12:36:19', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-10-06 12:36:19', 'ftime': '2019-10-06 12:36:19', 'context': '配送员严凯已经揽收完成', 'location': ''}, {'time': '2019-10-06 12:14:00', 'ftime': '2019-10-06 12:14:00', 'context': '揽收任务已分配给唐明明,配送员电话15051901739', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.06525</v>
+        <v>0.073133</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-02 21:08:16', 'ftime': '2019-10-02 21:08:16', 'context': '[江苏常熟分拨点]从站点发出，本次转运目的地：江苏常熟虞山工业园公司', 'location': '江苏常熟分拨点'}, {'time': '2019-10-02 21:03:16', 'ftime': '2019-10-02 21:03:16', 'context': '[江苏常熟分拨点]在分拨中心进行称重扫描', 'location': '江苏常熟分拨点'}, {'time': '2019-09-30 02:45:37', 'ftime': '2019-09-30 02:45:37', 'context': '[江苏苏州分拨中心]进行装车扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-30 00:43:50', 'ftime': '2019-09-30 00:43:50', 'context': '[江苏苏州分拨中心]在分拨中心进行称重扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-29 15:18:30', 'ftime': '2019-09-29 15:18:30', 'context': '[江苏主城区公司新常熟服务部虞山工业园分部]进行揽件扫描', 'location': '江苏主城区公司新常熟服务部虞山工业园分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-06 16:54:48', 'context': '查无结果', 'ftime': '2019-10-06 16:54:48'}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.075281</v>
+        <v>0.06740400000000001</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 13:26:53', 'ftime': '2019-10-08 13:26:53', 'context': '快件已本人签收', 'location': '广州越秀三部'}, {'time': '2019-10-07 19:42:02', 'ftime': '2019-10-07 19:42:02', 'context': '快件未签收，原因是【节假日客户放假，续送】', 'location': '广州越秀三部'}, {'time': '2019-10-07 12:47:04', 'ftime': '2019-10-07 12:47:04', 'context': '[广州越秀三部]的【刘炽贤】正在派件, 电话：15975847829', 'location': '广州越秀三部'}, {'time': '2019-10-07 08:53:58', 'ftime': '2019-10-07 08:53:58', 'context': '快件已到达[广州越秀三部],上一站是[广州分拨中心]', 'location': '广州越秀三部'}, {'time': '2019-10-07 05:38:40', 'ftime': '2019-10-07 05:38:40', 'context': '快件已由[广州分拨中心]发往[广州越秀三部]', 'location': '广州分拨中心'}, {'time': '2019-10-07 05:29:16', 'ftime': '2019-10-07 05:29:16', 'context': '快件已到达[广州分拨中心],上一站是[虎门分拨中心]', 'location': '广州分拨中心'}, {'time': '2019-10-07 04:23:23', 'ftime': '2019-10-07 04:23:23', 'context': '快件已由[虎门分拨中心]发往[广州分拨中心]', 'location': '虎门分拨中心'}, {'time': '2019-10-07 04:20:19', 'ftime': '2019-10-07 04:20:19', 'context': '快件已到达[虎门分拨中心],上一站是[金华分拨中心]', 'location': '虎门分拨中心'}, {'time': '2019-10-06 03:24:22', 'ftime': '2019-10-06 03:24:22', 'context': '快件已由[金华分拨中心]发往[虎门分拨中心]', 'location': '金华分拨中心'}, {'time': '2019-10-05 23:34:43', 'ftime': '2019-10-05 23:34:43', 'context': '快件已到达[金华分拨中心],上一站是[浙江义乌春晗一部]', 'location': '金华分拨中心'}, {'time': '2019-10-05 17:00:00', 'ftime': '2019-10-05 17:00:00', 'context': '[浙江义乌春晗一部]【庄迪爽】已收件', 'location': '浙江义乌春晗一部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-01 10:29:45', 'ftime': '2019-08-01 10:29:45', 'context': '【南京市】 快件已在 【南京奥体】 签收, 签收人: 快递柜！, 如有疑问请电联:18851069004 / 025-86891338, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-08-01 09:42:40', 'ftime': '2019-08-01 09:42:40', 'context': '【南京市】 【南京奥体】 的王练鹏（18851069004） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-08-01 06:34:17', 'ftime': '2019-08-01 06:34:17', 'context': '【南京市】 快件已经到达 【南京奥体】', 'location': ''}, {'time': '2019-07-31 19:34:54', 'ftime': '2019-07-31 19:34:54', 'context': '【常州市】 快件离开 【溧阳】 已发往 【南京中转部】', 'location': ''}, {'time': '2019-07-31 06:54:05', 'ftime': '2019-07-31 06:54:05', 'context': '【常州市】 快件已经到达 【溧阳】', 'location': ''}, {'time': '2019-07-30 22:00:31', 'ftime': '2019-07-30 22:00:31', 'context': '【南京市】 快件离开 【南京中转部】 已发往 【南京奥体】', 'location': ''}, {'time': '2019-07-30 21:53:03', 'ftime': '2019-07-30 21:53:03', 'context': '【南京市】 快件已经到达 【南京中转部】', 'location': ''}, {'time': '2019-07-30 19:41:35', 'ftime': '2019-07-30 19:41:35', 'context': '【南京市】 快件离开 【南京栖霞】 已发往 【南京中转部】', 'location': ''}, {'time': '2019-07-30 19:37:49', 'ftime': '2019-07-30 19:37:49', 'context': '【南京市】 【南京栖霞】（021-31080032） 的 小干（15715175107） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.071758</v>
+        <v>0.07474699999999999</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 14:51:17', 'ftime': '2019-10-08 14:51:17', 'context': '[陕西大荔县公司]进行揽件扫描', 'location': '陕西大荔县公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-15 12:41:29', 'ftime': '2019-09-15 12:41:29', 'context': '快件已本人签收', 'location': '龙城同乐'}, {'time': '2019-09-15 11:55:07', 'ftime': '2019-09-15 11:55:07', 'context': '快件未签收，原因是【节假日客户放假，续送】', 'location': '龙城同乐'}, {'time': '2019-09-15 09:46:39', 'ftime': '2019-09-15 09:46:39', 'context': '[龙城同乐]的【石成林】正在派件, 电话：13145850818', 'location': '龙城同乐'}, {'time': '2019-09-15 08:07:18', 'ftime': '2019-09-15 08:07:18', 'context': '快件已到达[龙城同乐],上一站是[虎门分拨中心]', 'location': '龙城同乐'}, {'time': '2019-09-15 05:16:53', 'ftime': '2019-09-15 05:16:53', 'context': '快件已由[虎门分拨中心]发往[龙城同乐]', 'location': '虎门分拨中心'}, {'time': '2019-09-15 04:42:56', 'ftime': '2019-09-15 04:42:56', 'context': '快件已由[虎门分拨中心]发往[龙城同乐]', 'location': '虎门分拨中心'}, {'time': '2019-09-15 04:23:40', 'ftime': '2019-09-15 04:23:40', 'context': '[虎门分拨中心]【莫蕙霞】正在进行装袋扫描', 'location': '虎门分拨中心'}, {'time': '2019-09-15 01:49:41', 'ftime': '2019-09-15 01:49:41', 'context': '[虎门分拨中心]【潘仲桃】正在进行拆袋扫描', 'location': '虎门分拨中心'}, {'time': '2019-09-15 01:49:41', 'ftime': '2019-09-15 01:49:41', 'context': '快件已到达[虎门分拨中心],上一站是[重庆分拨中心]', 'location': '虎门分拨中心'}, {'time': '2019-09-15 01:46:25', 'ftime': '2019-09-15 01:46:25', 'context': '快件已到达[虎门分拨中心],上一站是[重庆分拨中心]', 'location': '虎门分拨中心'}, {'time': '2019-09-13 22:46:38', 'ftime': '2019-09-13 22:46:38', 'context': '快件已由[重庆分拨中心]发往[虎门分拨中心]', 'location': '重庆分拨中心'}, {'time': '2019-09-13 22:33:34', 'ftime': '2019-09-13 22:33:34', 'context': '[重庆分拨中心]【胡熙均】正在进行装袋扫描', 'location': '重庆分拨中心'}, {'time': '2019-09-13 22:30:52', 'ftime': '2019-09-13 22:30:52', 'context': '快件已到达[重庆分拨中心],上一站是[重庆巴南二部]', 'location': '重庆分拨中心'}, {'time': '2019-09-13 20:17:24', 'ftime': '2019-09-13 20:17:24', 'context': '快件已由[重庆巴南二部]发往[重庆分拨中心]', 'location': '重庆巴南二部'}, {'time': '2019-09-13 20:12:23', 'ftime': '2019-09-13 20:12:23', 'context': '[重庆巴南二部]【甘跳跳】已收件', 'location': '重庆巴南二部'}, {'time': '2019-09-13 18:33:06', 'ftime': '2019-09-13 18:33:06', 'context': '[重庆巴南二部]【花溪】已收件', 'location': '重庆巴南二部'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.070677</v>
+        <v>0.071704</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 12:55:20', 'ftime': '2019-10-05 12:55:20', 'context': '【临沂市】 快件已在 【兰山马厂镇三部】 签收, 签收人: 菜鸟驿站, 如有疑问请电联:13508991520 / 15376048961, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-10-05 09:08:29', 'ftime': '2019-10-05 09:08:29', 'context': '【临沂市】 【兰山马厂镇三部】 的zto（13508991520） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-10-05 09:08:24', 'ftime': '2019-10-05 09:08:24', 'context': '【临沂市】 快件已经到达 【兰山马厂镇三部】', 'location': None}, {'time': '2019-10-04 22:59:45', 'ftime': '2019-10-04 22:59:45', 'context': '【临沂市】 快件离开 【临沂玩具城】 已发往 【兰山马厂镇三部】', 'location': None}, {'time': '2019-10-04 22:52:31', 'ftime': '2019-10-04 22:52:31', 'context': '【临沂市】 快件已经到达 【临沂玩具城】', 'location': None}, {'time': '2019-10-04 19:41:26', 'ftime': '2019-10-04 19:41:26', 'context': '【临沂市】 快件离开 【临沂中转部】 已发往 【临沂玩具城】', 'location': None}, {'time': '2019-10-04 18:09:59', 'ftime': '2019-10-04 18:09:59', 'context': '【临沂市】 快件已经到达 【临沂中转部】', 'location': None}, {'time': '2019-10-04 09:21:01', 'ftime': '2019-10-04 09:21:01', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【临沂中转部】', 'location': None}, {'time': '2019-10-01 02:25:30', 'ftime': '2019-10-01 02:25:30', 'context': '【成都市】 快件离开 【成都中转】 已发往 【临沂中转部】', 'location': None}, {'time': '2019-10-01 01:20:34', 'ftime': '2019-10-01 01:20:34', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': None}, {'time': '2019-09-30 17:56:53', 'ftime': '2019-09-30 17:56:53', 'context': '【宜宾市】 快件离开 【宜宾县】 已发往 【成都中转】', 'location': None}, {'time': '2019-09-30 17:52:02', 'ftime': '2019-09-30 17:52:02', 'context': '【宜宾市】 【宜宾县】（0831-6880265） 的 新村（15682223332） 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-06-25 09:10:32', 'ftime': '2019-06-25 09:10:32', 'context': '已签收，签收人类型：亲属', 'location': None}, {'time': '2019-06-25 08:47:30', 'ftime': '2019-06-25 08:47:30', 'context': '派送中', 'location': None}, {'time': '2019-06-25 07:14:33', 'ftime': '2019-06-25 07:14:33', 'context': '货物已到达北京朝阳区古玩市场快递分部', 'location': None}, {'time': '2019-06-25 05:52:35', 'ftime': '2019-06-25 05:52:35', 'context': '运输中，离开【北京转运场】，下一站【北京朝阳区古玩市场快递分部】', 'location': None}, {'time': '2019-06-24 23:12:30', 'ftime': '2019-06-24 23:12:30', 'context': '货物已到达北京转运场', 'location': None}, {'time': '2019-06-24 18:42:43', 'ftime': '2019-06-24 18:42:43', 'context': '运输中，离开【北京朝阳区劲松桥三快递营业点】，下一站【北京百子湾运作部】', 'location': None}, {'time': '2019-06-24 10:38:10', 'ftime': '2019-06-24 10:38:10', 'context': '此单为转寄更改单！', 'location': None}, {'time': '2019-06-24 09:04:14', 'ftime': '2019-06-24 09:04:14', 'context': '7我司原因转寄其他地址', 'location': None}, {'time': '2019-06-24 07:32:23', 'ftime': '2019-06-24 07:32:23', 'context': '货物已到达北京朝阳区劲松桥三快递营业点', 'location': None}, {'time': '2019-06-24 06:56:06', 'ftime': '2019-06-24 06:56:06', 'context': '运输中，离开【北京百子湾运作部】，下一站【北京朝阳区劲松桥三快递营业点】', 'location': None}, {'time': '2019-06-24 02:28:53', 'ftime': '2019-06-24 02:28:53', 'context': '货物已到达北京百子湾运作部', 'location': None}, {'time': '2019-06-24 01:53:30', 'ftime': '2019-06-24 01:53:30', 'context': '运输中，离开【北京转运场】，下一站【北京百子湾运作部】', 'location': None}, {'time': '2019-06-23 22:29:16', 'ftime': '2019-06-23 22:29:16', 'context': '运输中，离开【北京转运场】，下一站【北京百子湾运作部】', 'location': None}, {'time': '2019-06-23 11:00:09', 'ftime': '2019-06-23 11:00:09', 'context': '货物已到达北京转运场', 'location': None}, {'time': '2019-06-22 03:49:03', 'ftime': '2019-06-22 03:49:03', 'context': '运输中，离开【江门转运中心】，下一站【北京转运场】', 'location': None}, {'time': '2019-06-21 17:25:46', 'ftime': '2019-06-21 17:25:46', 'context': '货物已到达江门转运中心', 'location': None}, {'time': '2019-06-21 17:23:49', 'ftime': '2019-06-21 17:23:49', 'context': '运输中，离开【【K】中山横栏永兴工业区快运大客户营业部】，下一站【江门转运中心】', 'location': None}, {'time': '2019-06-21 11:25:57', 'ftime': '2019-06-21 11:25:57', 'context': '您的订单已被收件员揽收,【【K】中山横栏永兴工业区快运大客户营业部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.071701</v>
+        <v>0.07734199999999999</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:34:44', 'context': '查无结果', 'ftime': '2019-09-09 16:34:44'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:15:47', 'ftime': '2019-10-08 06:15:47', 'context': '【南京转运中心】 已发出 下一站 【蚌埠转运中心】', 'location': None}, {'time': '2019-10-08 06:12:41', 'ftime': '2019-10-08 06:12:41', 'context': '【南京转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 22:41:35', 'ftime': '2019-10-07 22:41:35', 'context': '【南通转运中心】 已发出 下一站 【南京转运中心】', 'location': None}, {'time': '2019-10-07 22:37:15', 'ftime': '2019-10-07 22:37:15', 'context': '【南通转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 19:06:42', 'ftime': '2019-10-07 19:06:42', 'context': '【江苏省南通市启东市】 已发出 下一站 【南通转运中心】', 'location': None}, {'time': '2019-10-07 18:58:25', 'ftime': '2019-10-07 18:58:25', 'context': '【江苏省南通市启东市公司】 已打包', 'location': None}, {'time': '2019-10-07 09:14:52', 'ftime': '2019-10-07 09:14:52', 'context': '【江苏省南通市启东市公司】 已收件 取件人: 沈水金 (18912882167)', 'location': None}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.073903</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 09:07:04', 'ftime': '2019-10-08 09:07:04', 'context': '快件已由兰州理工大学本部17号楼菜鸟驿站代收，请及时取件，如有疑问请联系15293180820', 'location': ''}, {'time': '2019-10-08 07:45:24', 'ftime': '2019-10-08 07:45:24', 'context': '【甘肃省兰州市七里河区上西元公司】 派件中 派件人: 王双平 电话 17739989327 如有疑问，请联系：0931-2660212', 'location': ''}, {'time': '2019-10-08 07:43:18', 'ftime': '2019-10-08 07:43:18', 'context': '【甘肃省兰州市七里河区上西元公司】 已收入', 'location': ''}, {'time': '2019-10-07 23:25:48', 'ftime': '2019-10-07 23:25:48', 'context': '【甘肃省兰州市】 已发出 下一站 【甘肃省兰州市七里河区上西元】', 'location': ''}, {'time': '2019-10-07 21:37:15', 'ftime': '2019-10-07 21:37:15', 'context': '【甘肃省兰州市公司】 已收入', 'location': ''}, {'time': '2019-10-05 00:18:32', 'ftime': '2019-10-05 00:18:32', 'context': '【义乌转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-04 22:45:41', 'ftime': '2019-10-04 22:45:41', 'context': '【浙江省金华市义乌市北苑丹溪】 已发出 下一站 【义乌转运中心】', 'location': ''}, {'time': '2019-10-04 22:35:59', 'ftime': '2019-10-04 22:35:59', 'context': '【浙江省金华市义乌市北苑丹溪公司】 已打包', 'location': ''}, {'time': '2019-10-04 21:05:02', 'ftime': '2019-10-04 21:05:02', 'context': '【浙江省金华市义乌市北苑丹溪公司】 已收件 取件人: 陈伟斌 (15967988425)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 07:10:47', 'ftime': '2019-10-08 07:10:47', 'context': '离开【沈阳中心】,下一站【济南中心】（经转）', 'location': None}, {'time': '2019-10-06 23:11:50', 'ftime': '2019-10-06 23:11:50', 'context': '到达【沈阳中心】（经转）', 'location': None}, {'time': '2019-10-06 20:16:07', 'ftime': '2019-10-06 20:16:07', 'context': '离开【海城中心】,下一站【沈阳中心】', 'location': None}, {'time': '2019-10-06 18:46:38', 'ftime': '2019-10-06 18:46:38', 'context': '到达【海城中心】', 'location': None}, {'time': '2019-10-06 18:44:08', 'ftime': '2019-10-06 18:44:08', 'context': '离开【海城市快包大宗】,下一站【海城中心】', 'location': None}, {'time': '2019-10-06 16:16:54', 'ftime': '2019-10-06 16:16:54', 'context': '鞍山市 【海城市快包大宗】已收件,揽投员:朱庆余,电话:11111111111', 'location': None}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.071546</v>
+        <v>0.075104</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
